--- a/Tau_values_WT_shorter_time.xlsx
+++ b/Tau_values_WT_shorter_time.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10" documentId="11_A08133E7111BD7547D9808A6D687377871054D0A" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7FDD1E1A-DAA0-B440-975E-57557146B5A3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>tau_1</t>
+  </si>
+  <si>
+    <t>tau_2</t>
+  </si>
+  <si>
+    <t>tau_3</t>
+  </si>
+  <si>
+    <t>tau_1</t>
+  </si>
+  <si>
+    <t>tau_2</t>
+  </si>
+  <si>
+    <t>tau_3</t>
+  </si>
+  <si>
+    <t>tau_1</t>
+  </si>
+  <si>
+    <t>tau_2</t>
+  </si>
+  <si>
+    <t>tau_3</t>
+  </si>
   <si>
     <t>tau_1</t>
   </si>
@@ -66,7 +93,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -74,13 +101,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,5837 +430,5842 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C535"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+    <sheetView tabSelected="true" topLeftCell="A501" workbookViewId="0">
       <selection activeCell="A533" sqref="A533:C535"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
         <v>16.369922206052113</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>15.507832544955281</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>22.515223248500877</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
         <v>17.690449851630088</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>19.585370189131215</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>17.963714010696506</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
         <v>23.45948868651795</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0">
         <v>20.84150960756438</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="0">
         <v>22.459498957383818</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
         <v>14.092892528847187</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>13.604595632494588</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>15.908107575935365</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
         <v>17.986453949258454</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>19.778737457438265</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>16.438855338221142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
         <v>19.886327687039945</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>21.406134914469831</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>13.008097924211734</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
         <v>22.548059406477925</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>22.037946500412968</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>23.370589715162456</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
         <v>20.262744538998291</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>15.702735604133659</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="0">
         <v>23.981885372880811</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
         <v>18.930750344242384</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>17.899574846845031</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>13.98183128654574</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
         <v>22.199013148460473</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>22.215635731905177</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>21.977496997824883</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
         <v>18.14400695908115</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>18.019025810478762</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>18.612661183195147</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
         <v>21.705409366628178</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>15.691854244076204</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>19.822295883454764</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
         <v>23.231920660802327</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>19.848028866799879</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>25.230640638824379</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
         <v>16.69706204697744</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0">
         <v>15.991146101501645</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="0">
         <v>21.603489604087539</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
         <v>24.437479670918279</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0">
         <v>26.320853067477238</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="0">
         <v>22.196670038532687</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
         <v>25.768440792895824</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0">
         <v>25.790586774254049</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="0">
         <v>27.042657419881156</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
         <v>25.745396550218288</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0">
         <v>16.316307705756479</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="0">
         <v>17.629196993634444</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
         <v>21.403340251481502</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0">
         <v>16.871864976351368</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="0">
         <v>24.651969509538713</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
         <v>20.139643610340475</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0">
         <v>16.687938043603005</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="0">
         <v>22.721674832906253</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
         <v>21.983983230804036</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0">
         <v>16.151526289560703</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="0">
         <v>17.459934208062833</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
         <v>19.148649198587027</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0">
         <v>23.739227314537406</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="0">
         <v>19.820526852886765</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="0">
         <v>15.264065514687424</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0">
         <v>16.058712695898759</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="0">
         <v>12.903450769741234</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="0">
         <v>16.848862407115647</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0">
         <v>18.958895791823668</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="0">
         <v>14.787083600480239</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="0">
         <v>20.473006497260769</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0">
         <v>24.021530516799192</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="0">
         <v>22.738931218696365</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="0">
         <v>24.257086156830646</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0">
         <v>22.454615988051717</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="0">
         <v>26.58791107171626</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="0">
         <v>21.625417260846017</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0">
         <v>22.793214345874372</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="0">
         <v>24.01060891574469</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="0">
         <v>23.476252402254094</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0">
         <v>15.875397419665632</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="0">
         <v>22.11634962287502</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="0">
         <v>23.522909871266656</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0">
         <v>16.666977882417413</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="0">
         <v>23.590983330395758</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="0">
         <v>21.063186128254902</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0">
         <v>17.647988991594598</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="0">
         <v>25.277958459899754</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="0">
         <v>20.432189268516694</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0">
         <v>15.312342259679422</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="0">
         <v>16.411403386429363</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="0">
         <v>18.176976074739216</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0">
         <v>16.076994630151734</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="0">
         <v>13.980406271880414</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="0">
         <v>20.284154674466926</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0">
         <v>15.157094058164931</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="0">
         <v>16.564201552412396</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="0">
         <v>15.820471582120708</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0">
         <v>16.398044741105576</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="0">
         <v>14.546706906536164</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="35" x14ac:dyDescent="0.2">
+      <c r="A35" s="0">
         <v>18.916568229494775</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0">
         <v>24.722990964584117</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="0">
         <v>24.372513651521384</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" x14ac:dyDescent="0.2">
+      <c r="A36" s="0">
         <v>17.976511047312258</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0">
         <v>14.318657625777076</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="0">
         <v>21.365921982848697</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="37" x14ac:dyDescent="0.2">
+      <c r="A37" s="0">
         <v>22.349034345095031</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0">
         <v>27.180769357759008</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="0">
         <v>25.040411374875713</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="38" x14ac:dyDescent="0.2">
+      <c r="A38" s="0">
         <v>24.824152822810301</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0">
         <v>30.09566961161417</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="0">
         <v>26.203418898442418</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="39" x14ac:dyDescent="0.2">
+      <c r="A39" s="0">
         <v>24.810090896016934</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0">
         <v>17.218067303267357</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="0">
         <v>25.591588273479271</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="40" x14ac:dyDescent="0.2">
+      <c r="A40" s="0">
         <v>20.66494830927563</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0">
         <v>22.370464078406904</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="0">
         <v>21.396936109763679</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="41" x14ac:dyDescent="0.2">
+      <c r="A41" s="0">
         <v>25.378449976531769</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0">
         <v>21.245269851200089</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="0">
         <v>18.447199903850329</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="42" x14ac:dyDescent="0.2">
+      <c r="A42" s="0">
         <v>17.520719775173148</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0">
         <v>16.918543370173563</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="0">
         <v>22.369473990965925</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="43" x14ac:dyDescent="0.2">
+      <c r="A43" s="0">
         <v>22.277155365992467</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0">
         <v>17.802750182397411</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="0">
         <v>25.809343710140148</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="44" x14ac:dyDescent="0.2">
+      <c r="A44" s="0">
         <v>23.216262489572799</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0">
         <v>25.484415765533164</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="0">
         <v>26.034465753449382</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="0">
         <v>21.596475433600489</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0">
         <v>21.174016216804713</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="0">
         <v>20.119340477707013</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="46" x14ac:dyDescent="0.2">
+      <c r="A46" s="0">
         <v>25.90489697554143</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0">
         <v>25.315556470271389</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="0">
         <v>24.52032242432125</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="47" x14ac:dyDescent="0.2">
+      <c r="A47" s="0">
         <v>25.174007897279147</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0">
         <v>25.938066880009309</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="0">
         <v>25.523563788723465</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="0">
         <v>18.950760464392353</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0">
         <v>18.879643921084373</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="0">
         <v>16.717456226015504</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="49" x14ac:dyDescent="0.2">
+      <c r="A49" s="0">
         <v>19.639539536560484</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0">
         <v>20.403347734696244</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="0">
         <v>26.398953114130027</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="50" x14ac:dyDescent="0.2">
+      <c r="A50" s="0">
         <v>18.046237892798644</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0">
         <v>20.478592386049545</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="0">
         <v>26.581081677631413</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="0">
         <v>19.635701393089409</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0">
         <v>20.238830241898274</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="0">
         <v>28.107204416031383</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="52" x14ac:dyDescent="0.2">
+      <c r="A52" s="0">
         <v>21.548620835815157</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0">
         <v>23.706858614193841</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="0">
         <v>27.252308456936948</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="53" x14ac:dyDescent="0.2">
+      <c r="A53" s="0">
         <v>27.111869961450342</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0">
         <v>27.344043193440221</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="0">
         <v>30.25753471312273</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="54" x14ac:dyDescent="0.2">
+      <c r="A54" s="0">
         <v>18.96945990747766</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0">
         <v>21.134681008961611</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="0">
         <v>17.447081834169822</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55">
+    <row r="55" x14ac:dyDescent="0.2">
+      <c r="A55" s="0">
         <v>21.406448638822887</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0">
         <v>16.406642176481039</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="0">
         <v>15.36600403261343</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56">
+    <row r="56" x14ac:dyDescent="0.2">
+      <c r="A56" s="0">
         <v>25.589061806290307</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0">
         <v>28.037278509735625</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="0">
         <v>25.153111112148203</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57">
+    <row r="57" x14ac:dyDescent="0.2">
+      <c r="A57" s="0">
         <v>17.39549376363491</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0">
         <v>20.093667503798429</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="0">
         <v>14.30307010515115</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58">
+    <row r="58" x14ac:dyDescent="0.2">
+      <c r="A58" s="0">
         <v>22.119696278409741</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0">
         <v>25.196762899578079</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="0">
         <v>24.522764333858468</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59">
+    <row r="59" x14ac:dyDescent="0.2">
+      <c r="A59" s="0">
         <v>22.382518549498954</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0">
         <v>19.474502096455549</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="0">
         <v>26.251855275591506</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60">
+    <row r="60" x14ac:dyDescent="0.2">
+      <c r="A60" s="0">
         <v>22.418150684265132</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0">
         <v>17.879885295954473</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="0">
         <v>31.030562125972565</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61">
+    <row r="61" x14ac:dyDescent="0.2">
+      <c r="A61" s="0">
         <v>18.27402376045745</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0">
         <v>17.718228213550429</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="0">
         <v>18.584614507084286</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
+    <row r="62" x14ac:dyDescent="0.2">
+      <c r="A62" s="0">
         <v>25.755184382376665</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0">
         <v>21.164977320591511</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="0">
         <v>30.668278362519995</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63">
+    <row r="63" x14ac:dyDescent="0.2">
+      <c r="A63" s="0">
         <v>22.574874205650989</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0">
         <v>17.706817314398084</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="0">
         <v>19.14284757257612</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64">
+    <row r="64" x14ac:dyDescent="0.2">
+      <c r="A64" s="0">
         <v>20.985919947605559</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0">
         <v>20.187980993609706</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="0">
         <v>23.921482890882643</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
+    <row r="65" x14ac:dyDescent="0.2">
+      <c r="A65" s="0">
         <v>20.977197835652341</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0">
         <v>22.009486595422661</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="0">
         <v>23.91931855178079</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66">
+    <row r="66" x14ac:dyDescent="0.2">
+      <c r="A66" s="0">
         <v>24.53749745063908</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="0">
         <v>25.841284244625562</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="0">
         <v>21.79777521993072</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
+    <row r="67" x14ac:dyDescent="0.2">
+      <c r="A67" s="0">
         <v>20.046331452913019</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="0">
         <v>27.314145555927226</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="0">
         <v>22.981088292023482</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68">
+    <row r="68" x14ac:dyDescent="0.2">
+      <c r="A68" s="0">
         <v>22.368762311774713</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="0">
         <v>23.346571613423198</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="0">
         <v>30.194664586120144</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69">
+    <row r="69" x14ac:dyDescent="0.2">
+      <c r="A69" s="0">
         <v>22.328573856717711</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="0">
         <v>20.41358044416182</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="0">
         <v>29.086506638152052</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70">
+    <row r="70" x14ac:dyDescent="0.2">
+      <c r="A70" s="0">
         <v>21.579001285059917</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="0">
         <v>25.375665689471511</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="0">
         <v>26.262679952965371</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71">
+    <row r="71" x14ac:dyDescent="0.2">
+      <c r="A71" s="0">
         <v>17.18349635843709</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="0">
         <v>19.783548826810506</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="0">
         <v>23.42739327349658</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72">
+    <row r="72" x14ac:dyDescent="0.2">
+      <c r="A72" s="0">
         <v>17.432876209544396</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="0">
         <v>20.807760986437284</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="0">
         <v>26.047827914802024</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
+    <row r="73" x14ac:dyDescent="0.2">
+      <c r="A73" s="0">
         <v>21.775495554869039</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="0">
         <v>17.319059957885809</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="0">
         <v>28.22651907758404</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
+    <row r="74" x14ac:dyDescent="0.2">
+      <c r="A74" s="0">
         <v>22.141191477809642</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="0">
         <v>25.748255336130324</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="0">
         <v>25.631841669522945</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75">
+    <row r="75" x14ac:dyDescent="0.2">
+      <c r="A75" s="0">
         <v>22.055208975191611</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="0">
         <v>21.311462759822764</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="0">
         <v>30.275051919136185</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76">
+    <row r="76" x14ac:dyDescent="0.2">
+      <c r="A76" s="0">
         <v>20.326624011706343</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="0">
         <v>18.225924343932896</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="0">
         <v>19.655882942718662</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77">
+    <row r="77" x14ac:dyDescent="0.2">
+      <c r="A77" s="0">
         <v>26.610628743332256</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="0">
         <v>26.970815019422677</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="0">
         <v>32.164306217035133</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
+    <row r="78" x14ac:dyDescent="0.2">
+      <c r="A78" s="0">
         <v>20.458592692849024</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="0">
         <v>24.813624115852875</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="0">
         <v>25.645759622947601</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79">
+    <row r="79" x14ac:dyDescent="0.2">
+      <c r="A79" s="0">
         <v>26.560453633890155</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="0">
         <v>25.569856494473555</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="0">
         <v>23.233814463318332</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80">
+    <row r="80" x14ac:dyDescent="0.2">
+      <c r="A80" s="0">
         <v>21.621307354577443</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="0">
         <v>24.391772085953868</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="0">
         <v>18.423159425238197</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81">
+    <row r="81" x14ac:dyDescent="0.2">
+      <c r="A81" s="0">
         <v>17.894259996185749</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="0">
         <v>18.97956844619436</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="0">
         <v>21.688211048721463</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82">
+    <row r="82" x14ac:dyDescent="0.2">
+      <c r="A82" s="0">
         <v>19.287996152794754</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="0">
         <v>17.979895372857968</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="0">
         <v>20.730260937218858</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83">
+    <row r="83" x14ac:dyDescent="0.2">
+      <c r="A83" s="0">
         <v>25.520413100286127</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="0">
         <v>27.618281647969773</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="0">
         <v>32.679271890430115</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84">
+    <row r="84" x14ac:dyDescent="0.2">
+      <c r="A84" s="0">
         <v>18.717420874029035</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="0">
         <v>27.780597878034669</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="0">
         <v>25.80216887421248</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85">
+    <row r="85" x14ac:dyDescent="0.2">
+      <c r="A85" s="0">
         <v>19.208026638391697</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="0">
         <v>16.638911359538643</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="0">
         <v>25.496294233253224</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86">
+    <row r="86" x14ac:dyDescent="0.2">
+      <c r="A86" s="0">
         <v>15.717260862830519</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="0">
         <v>21.308234914522053</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="0">
         <v>14.162777405158131</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87">
+    <row r="87" x14ac:dyDescent="0.2">
+      <c r="A87" s="0">
         <v>17.56195823497222</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="0">
         <v>25.195259258004768</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="0">
         <v>17.952447517067917</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88">
+    <row r="88" x14ac:dyDescent="0.2">
+      <c r="A88" s="0">
         <v>21.683388713244078</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="0">
         <v>25.071159424898891</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="0">
         <v>27.605160781835274</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89">
+    <row r="89" x14ac:dyDescent="0.2">
+      <c r="A89" s="0">
         <v>20.162909423338061</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="0">
         <v>21.402088101153907</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="0">
         <v>18.24629885198765</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90">
+    <row r="90" x14ac:dyDescent="0.2">
+      <c r="A90" s="0">
         <v>20.614163399058196</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="0">
         <v>19.475983698735547</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="0">
         <v>16.973915699062022</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91">
+    <row r="91" x14ac:dyDescent="0.2">
+      <c r="A91" s="0">
         <v>24.25339690175948</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="0">
         <v>25.148586445051862</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="0">
         <v>26.089413076820559</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92">
+    <row r="92" x14ac:dyDescent="0.2">
+      <c r="A92" s="0">
         <v>22.954849291228285</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="0">
         <v>30.797257274294509</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="0">
         <v>18.946957674375533</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93">
+    <row r="93" x14ac:dyDescent="0.2">
+      <c r="A93" s="0">
         <v>21.242474776392267</v>
       </c>
-      <c r="C93">
+      <c r="B93" s="0"/>
+      <c r="C93" s="0">
         <v>18.805647435038107</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94">
+    <row r="94" x14ac:dyDescent="0.2">
+      <c r="A94" s="0">
         <v>22.116572838498268</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="0">
         <v>20.580283317257646</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="0">
         <v>25.702008061988064</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95">
+    <row r="95" x14ac:dyDescent="0.2">
+      <c r="A95" s="0">
         <v>28.381464571149245</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="0">
         <v>27.359887416698495</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="0">
         <v>22.419556189467052</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96">
+    <row r="96" x14ac:dyDescent="0.2">
+      <c r="A96" s="0">
         <v>20.964262930956899</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="0">
         <v>25.42755135735003</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="0">
         <v>30.276601157800613</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97">
+    <row r="97" x14ac:dyDescent="0.2">
+      <c r="A97" s="0">
         <v>21.05397161781649</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="0">
         <v>21.335938632179417</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="0">
         <v>20.815744030370929</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98">
+    <row r="98" x14ac:dyDescent="0.2">
+      <c r="A98" s="0">
         <v>19.843885539102875</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="0">
         <v>17.872947267598519</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="0">
         <v>20.917132678438215</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99">
+    <row r="99" x14ac:dyDescent="0.2">
+      <c r="A99" s="0">
         <v>17.779889905494588</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="0">
         <v>21.254230573625779</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="0">
         <v>22.759821890672495</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100">
+    <row r="100" x14ac:dyDescent="0.2">
+      <c r="A100" s="0">
         <v>26.532441079564709</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="0">
         <v>22.298013090819072</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="0">
         <v>20.410764448462341</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101">
+    <row r="101" x14ac:dyDescent="0.2">
+      <c r="A101" s="0">
         <v>23.424471233907109</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="0">
         <v>23.716827248122648</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="0">
         <v>20.862493683817636</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102">
+    <row r="102" x14ac:dyDescent="0.2">
+      <c r="A102" s="0">
         <v>22.824567733977226</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="0">
         <v>21.583477517410468</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="0">
         <v>23.094904043005958</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103">
+    <row r="103" x14ac:dyDescent="0.2">
+      <c r="A103" s="0">
         <v>24.582905477564157</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="0">
         <v>26.258216915989749</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="0">
         <v>22.528923301161207</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104">
+    <row r="104" x14ac:dyDescent="0.2">
+      <c r="A104" s="0">
         <v>19.386431462624547</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="0">
         <v>18.000756713583669</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="0">
         <v>22.105493386955558</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105">
+    <row r="105" x14ac:dyDescent="0.2">
+      <c r="A105" s="0">
         <v>23.082543569403832</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="0">
         <v>26.234853828545301</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="0">
         <v>21.514154861509631</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106">
+    <row r="106" x14ac:dyDescent="0.2">
+      <c r="A106" s="0">
         <v>24.476567781070361</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="0">
         <v>23.040332855274411</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="0">
         <v>22.659794535177618</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107">
+    <row r="107" x14ac:dyDescent="0.2">
+      <c r="A107" s="0">
         <v>19.777097678979576</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="0">
         <v>18.080133701604922</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="0">
         <v>23.026314345090093</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108">
+    <row r="108" x14ac:dyDescent="0.2">
+      <c r="A108" s="0">
         <v>20.761759414027157</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="0">
         <v>21.294231625792602</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="0">
         <v>21.792835587520074</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109">
+    <row r="109" x14ac:dyDescent="0.2">
+      <c r="A109" s="0">
         <v>20.718799085289358</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="0">
         <v>23.07727604645812</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="0">
         <v>24.970034990302558</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110">
+    <row r="110" x14ac:dyDescent="0.2">
+      <c r="A110" s="0">
         <v>22.904616626757893</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="0">
         <v>22.617856088179359</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="0">
         <v>22.153585020500742</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111">
+    <row r="111" x14ac:dyDescent="0.2">
+      <c r="A111" s="0">
         <v>23.384329245382169</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="0">
         <v>21.758624061584413</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="0">
         <v>22.271042503899768</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112">
+    <row r="112" x14ac:dyDescent="0.2">
+      <c r="A112" s="0">
         <v>23.330723979842009</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="0">
         <v>27.290965005829214</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="0">
         <v>24.499783643197489</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113">
+    <row r="113" x14ac:dyDescent="0.2">
+      <c r="A113" s="0">
         <v>22.769488787663182</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="0">
         <v>26.349022528675309</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="0">
         <v>25.909537575744814</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114">
+    <row r="114" x14ac:dyDescent="0.2">
+      <c r="A114" s="0">
         <v>26.716284511405295</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="0">
         <v>26.414609229867708</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="0">
         <v>23.614800568078994</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115">
+    <row r="115" x14ac:dyDescent="0.2">
+      <c r="A115" s="0">
         <v>21.611877783573277</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="0">
         <v>20.314451451653852</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="0">
         <v>19.825061644627205</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116">
+    <row r="116" x14ac:dyDescent="0.2">
+      <c r="A116" s="0">
         <v>20.962118818795609</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="0">
         <v>22.057253068134898</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="0">
         <v>19.16580800493163</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117">
+    <row r="117" x14ac:dyDescent="0.2">
+      <c r="A117" s="0">
         <v>22.913566491263886</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="0">
         <v>23.010739851872525</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="0">
         <v>23.872219802779611</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118">
+    <row r="118" x14ac:dyDescent="0.2">
+      <c r="A118" s="0">
         <v>24.378450494111313</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="0">
         <v>26.031794368719272</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="0">
         <v>23.736145331775415</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119">
+    <row r="119" x14ac:dyDescent="0.2">
+      <c r="A119" s="0">
         <v>22.126318164044093</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="0">
         <v>23.358526300258173</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="0">
         <v>20.434177045158126</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120">
+    <row r="120" x14ac:dyDescent="0.2">
+      <c r="A120" s="0">
         <v>21.993340240447033</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="0">
         <v>18.894160434468734</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="0">
         <v>23.637015727341385</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121">
+    <row r="121" x14ac:dyDescent="0.2">
+      <c r="A121" s="0">
         <v>19.473046830917042</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="0">
         <v>22.610281941042029</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="0">
         <v>22.045019928819734</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122">
+    <row r="122" x14ac:dyDescent="0.2">
+      <c r="A122" s="0">
         <v>23.682967224353735</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="0">
         <v>19.042729888725983</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="0">
         <v>26.241852154840799</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123">
+    <row r="123" x14ac:dyDescent="0.2">
+      <c r="A123" s="0">
         <v>22.723990562372705</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="0">
         <v>25.229253391199588</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="0">
         <v>21.077454180471936</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124">
+    <row r="124" x14ac:dyDescent="0.2">
+      <c r="A124" s="0">
         <v>25.82614888505692</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="0">
         <v>28.178696288583467</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="0">
         <v>24.653408662644122</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125">
+    <row r="125" x14ac:dyDescent="0.2">
+      <c r="A125" s="0">
         <v>22.476381573770809</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="0">
         <v>23.212878189827929</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="0">
         <v>22.79417766100152</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126">
+    <row r="126" x14ac:dyDescent="0.2">
+      <c r="A126" s="0">
         <v>22.525281743584696</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="0">
         <v>24.347961410140499</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="0">
         <v>25.656293848489767</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127">
+    <row r="127" x14ac:dyDescent="0.2">
+      <c r="A127" s="0">
         <v>19.012049225992623</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="0">
         <v>19.731245134578963</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="0">
         <v>19.255508286020333</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128">
+    <row r="128" x14ac:dyDescent="0.2">
+      <c r="A128" s="0">
         <v>26.915437847071821</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="0">
         <v>20.000755095183752</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="0">
         <v>22.316340098104593</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129">
+    <row r="129" x14ac:dyDescent="0.2">
+      <c r="A129" s="0">
         <v>20.074291482950027</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="0">
         <v>33.548939790379244</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="0">
         <v>22.964198747945101</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130">
+    <row r="130" x14ac:dyDescent="0.2">
+      <c r="A130" s="0">
         <v>20.797566011429563</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="0">
         <v>23.114949517220222</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="0">
         <v>29.60521248683866</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131">
+    <row r="131" x14ac:dyDescent="0.2">
+      <c r="A131" s="0">
         <v>26.898201725979394</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="0">
         <v>21.416310759538248</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="0">
         <v>24.028709860106275</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132">
+    <row r="132" x14ac:dyDescent="0.2">
+      <c r="A132" s="0">
         <v>23.949565499687022</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="0">
         <v>19.905742199331542</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="0">
         <v>25.65212593202245</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133">
+    <row r="133" x14ac:dyDescent="0.2">
+      <c r="A133" s="0">
         <v>23.533338384355989</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="0">
         <v>26.472167914329066</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="0">
         <v>26.557078915710562</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134">
+    <row r="134" x14ac:dyDescent="0.2">
+      <c r="A134" s="0">
         <v>21.698864058781879</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="0">
         <v>23.328591834918015</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="0">
         <v>30.48793777366798</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135">
+    <row r="135" x14ac:dyDescent="0.2">
+      <c r="A135" s="0">
         <v>21.870480232154648</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="0">
         <v>33.676298072012223</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="0">
         <v>26.343166241541482</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136">
+    <row r="136" x14ac:dyDescent="0.2">
+      <c r="A136" s="0">
         <v>22.281647161148264</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="0">
         <v>26.547101633014876</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="0">
         <v>26.918496807374943</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137">
+    <row r="137" x14ac:dyDescent="0.2">
+      <c r="A137" s="0">
         <v>18.827169807321912</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="0">
         <v>27.454898654708376</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="0">
         <v>23.211244338119268</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138">
+    <row r="138" x14ac:dyDescent="0.2">
+      <c r="A138" s="0">
         <v>22.634280951368432</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="0">
         <v>21.808465649660896</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="0">
         <v>29.715964655854219</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139">
+    <row r="139" x14ac:dyDescent="0.2">
+      <c r="A139" s="0">
         <v>22.739977405683984</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="0">
         <v>25.397713101927792</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="0">
         <v>22.111293866123344</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140">
+    <row r="140" x14ac:dyDescent="0.2">
+      <c r="A140" s="0">
         <v>20.693352723386589</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="0">
         <v>24.232477215837211</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="0">
         <v>23.375599913733115</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141">
+    <row r="141" x14ac:dyDescent="0.2">
+      <c r="A141" s="0">
         <v>25.636626245276577</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="0">
         <v>25.61469030666337</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="0">
         <v>26.451318018867259</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142">
+    <row r="142" x14ac:dyDescent="0.2">
+      <c r="A142" s="0">
         <v>25.508794381864867</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="0">
         <v>28.101008990851106</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="0">
         <v>26.290630857281368</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143">
+    <row r="143" x14ac:dyDescent="0.2">
+      <c r="A143" s="0">
         <v>20.436488885561314</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="0">
         <v>27.864053003021276</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="0">
         <v>24.610963104358341</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144">
+    <row r="144" x14ac:dyDescent="0.2">
+      <c r="A144" s="0">
         <v>25.122710393317256</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="0">
         <v>21.37157471137137</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="0">
         <v>29.035908024928034</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145">
+    <row r="145" x14ac:dyDescent="0.2">
+      <c r="A145" s="0">
         <v>20.211065664954425</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="0">
         <v>27.733519318071831</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="0">
         <v>24.814417395818399</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146">
+    <row r="146" x14ac:dyDescent="0.2">
+      <c r="A146" s="0">
         <v>21.514289028406509</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="0">
         <v>25.476554425831946</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="0">
         <v>22.694149461218029</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147">
+    <row r="147" x14ac:dyDescent="0.2">
+      <c r="A147" s="0">
         <v>29.917449258258252</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="0">
         <v>23.604178287237197</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="0">
         <v>24.0514615102562</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148">
+    <row r="148" x14ac:dyDescent="0.2">
+      <c r="A148" s="0">
         <v>24.973041306368987</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="0">
         <v>20.203798843192647</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="0">
         <v>31.003663095013103</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149">
+    <row r="149" x14ac:dyDescent="0.2">
+      <c r="A149" s="0">
         <v>24.545667311820861</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="0">
         <v>21.254276556567895</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="0">
         <v>27.858046962095219</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150">
+    <row r="150" x14ac:dyDescent="0.2">
+      <c r="A150" s="0">
         <v>19.088863594910542</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="0">
         <v>21.739998251415656</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="0">
         <v>24.016566234196741</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151">
+    <row r="151" x14ac:dyDescent="0.2">
+      <c r="A151" s="0">
         <v>24.567574047842946</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="0">
         <v>26.495730356520678</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="0">
         <v>21.794603429973506</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152">
+    <row r="152" x14ac:dyDescent="0.2">
+      <c r="A152" s="0">
         <v>17.70003261879376</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="0">
         <v>18.122762415399063</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="0">
         <v>17.096758876602969</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153">
+    <row r="153" x14ac:dyDescent="0.2">
+      <c r="A153" s="0">
         <v>23.732997188888461</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="0">
         <v>27.620207075996298</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="0">
         <v>29.476537769388042</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154">
+    <row r="154" x14ac:dyDescent="0.2">
+      <c r="A154" s="0">
         <v>22.402475569416076</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="0">
         <v>22.121245281807134</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="0">
         <v>30.05502429358307</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155">
+    <row r="155" x14ac:dyDescent="0.2">
+      <c r="A155" s="0">
         <v>23.333464671906231</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="0">
         <v>32.548009927773521</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="0">
         <v>30.803547018875928</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156">
+    <row r="156" x14ac:dyDescent="0.2">
+      <c r="A156" s="0">
         <v>23.277979582229847</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="0">
         <v>22.728544584722137</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="0">
         <v>23.390628875431698</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157">
+    <row r="157" x14ac:dyDescent="0.2">
+      <c r="A157" s="0">
         <v>22.92371431081142</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="0">
         <v>22.345677324569532</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="0">
         <v>30.537944732277733</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158">
+    <row r="158" x14ac:dyDescent="0.2">
+      <c r="A158" s="0">
         <v>20.610394162820132</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="0">
         <v>19.906878737618459</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="0">
         <v>29.49692318941679</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159">
+    <row r="159" x14ac:dyDescent="0.2">
+      <c r="A159" s="0">
         <v>21.001194053244568</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="0">
         <v>22.640475271656321</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="0">
         <v>22.741341933198338</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160">
+    <row r="160" x14ac:dyDescent="0.2">
+      <c r="A160" s="0">
         <v>24.222406860580417</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="0">
         <v>20.730580859149594</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="0">
         <v>31.984324789720866</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161">
+    <row r="161" x14ac:dyDescent="0.2">
+      <c r="A161" s="0">
         <v>20.546163346040043</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="0">
         <v>24.71658867205322</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="0">
         <v>23.448011558712686</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162">
+    <row r="162" x14ac:dyDescent="0.2">
+      <c r="A162" s="0">
         <v>20.508703754417219</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="0">
         <v>21.140136840595328</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="0">
         <v>24.393175443313545</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163">
+    <row r="163" x14ac:dyDescent="0.2">
+      <c r="A163" s="0">
         <v>25.821089338037851</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="0">
         <v>20.768079322579059</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="0">
         <v>30.403571514132398</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164">
+    <row r="164" x14ac:dyDescent="0.2">
+      <c r="A164" s="0">
         <v>20.371853484800727</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="0">
         <v>19.166550544955108</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="0">
         <v>22.700061430770194</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165">
+    <row r="165" x14ac:dyDescent="0.2">
+      <c r="A165" s="0">
         <v>18.253469209530646</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="0">
         <v>15.983063509221616</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="0">
         <v>20.917805661229874</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166">
+    <row r="166" x14ac:dyDescent="0.2">
+      <c r="A166" s="0">
         <v>27.498726200196774</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="0">
         <v>26.645746581472761</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="0">
         <v>33.274787458986737</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167">
+    <row r="167" x14ac:dyDescent="0.2">
+      <c r="A167" s="0">
         <v>23.917911556714174</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="0">
         <v>25.739909819850393</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="0">
         <v>23.891626849006144</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168">
+    <row r="168" x14ac:dyDescent="0.2">
+      <c r="A168" s="0">
         <v>24.217054223710235</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="0">
         <v>33.047102712320743</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="0">
         <v>23.197419594544293</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169">
+    <row r="169" x14ac:dyDescent="0.2">
+      <c r="A169" s="0">
         <v>23.033699955427771</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="0">
         <v>21.830468911261509</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="0">
         <v>30.368906784347285</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170">
+    <row r="170" x14ac:dyDescent="0.2">
+      <c r="A170" s="0">
         <v>22.900233561185697</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="0">
         <v>26.752587582213604</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="0">
         <v>24.425295892044069</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171">
+    <row r="171" x14ac:dyDescent="0.2">
+      <c r="A171" s="0">
         <v>23.006513415877382</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="0">
         <v>23.300764915077316</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="0">
         <v>26.349220211195068</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172">
+    <row r="172" x14ac:dyDescent="0.2">
+      <c r="A172" s="0">
         <v>23.408766706622572</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="0">
         <v>21.366469676294624</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="0">
         <v>24.334436674388822</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173">
+    <row r="173" x14ac:dyDescent="0.2">
+      <c r="A173" s="0">
         <v>23.852121327861752</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="0">
         <v>24.107398694690026</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="0">
         <v>25.000011914628431</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174">
+    <row r="174" x14ac:dyDescent="0.2">
+      <c r="A174" s="0">
         <v>20.705384448611838</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="0">
         <v>19.170904411268285</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="0">
         <v>28.058386878570229</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175">
+    <row r="175" x14ac:dyDescent="0.2">
+      <c r="A175" s="0">
         <v>22.698526419913602</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="0">
         <v>21.176301278016268</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="0">
         <v>28.611098209345375</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176">
+    <row r="176" x14ac:dyDescent="0.2">
+      <c r="A176" s="0">
         <v>27.472671789414225</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="0">
         <v>21.634150111656528</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="0">
         <v>19.969905387388369</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177">
+    <row r="177" x14ac:dyDescent="0.2">
+      <c r="A177" s="0">
         <v>22.868261574608042</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="0">
         <v>24.338386243582235</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="0">
         <v>24.970712789311943</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178">
+    <row r="178" x14ac:dyDescent="0.2">
+      <c r="A178" s="0">
         <v>25.618192788210806</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="0">
         <v>25.223377786139253</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="0">
         <v>26.324696937391529</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179">
+    <row r="179" x14ac:dyDescent="0.2">
+      <c r="A179" s="0">
         <v>18.627681046198532</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="0">
         <v>22.198283264456979</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="0">
         <v>28.705878451195353</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180">
+    <row r="180" x14ac:dyDescent="0.2">
+      <c r="A180" s="0">
         <v>27.992055708866754</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="0">
         <v>24.844811714359142</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="0">
         <v>24.31822365500188</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181">
+    <row r="181" x14ac:dyDescent="0.2">
+      <c r="A181" s="0">
         <v>26.466794513929003</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="0">
         <v>39.377416756564692</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="0">
         <v>25.597277066887841</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182">
+    <row r="182" x14ac:dyDescent="0.2">
+      <c r="A182" s="0">
         <v>26.693456189792656</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="0">
         <v>30.353427098177828</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="0">
         <v>27.06385459662739</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183">
+    <row r="183" x14ac:dyDescent="0.2">
+      <c r="A183" s="0">
         <v>25.48846983415736</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="0">
         <v>23.781129210054864</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="0">
         <v>26.787076230707203</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184">
+    <row r="184" x14ac:dyDescent="0.2">
+      <c r="A184" s="0">
         <v>20.943708022383134</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="0">
         <v>18.07008563408289</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="0">
         <v>23.09335003689711</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185">
+    <row r="185" x14ac:dyDescent="0.2">
+      <c r="A185" s="0">
         <v>21.876341471579781</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="0">
         <v>23.264620032051845</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="0">
         <v>23.902508038694293</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186">
+    <row r="186" x14ac:dyDescent="0.2">
+      <c r="A186" s="0">
         <v>26.337898384469035</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="0">
         <v>26.590851980761435</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="0">
         <v>26.567706321974857</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187">
+    <row r="187" x14ac:dyDescent="0.2">
+      <c r="A187" s="0">
         <v>26.354548718241766</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="0">
         <v>29.636443827339935</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="0">
         <v>26.391439406001563</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188">
+    <row r="188" x14ac:dyDescent="0.2">
+      <c r="A188" s="0">
         <v>24.825740512132818</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="0">
         <v>35.317275308452906</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="0">
         <v>26.866057723064706</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189">
+    <row r="189" x14ac:dyDescent="0.2">
+      <c r="A189" s="0">
         <v>25.735154084940397</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="0">
         <v>29.416764776944074</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="0">
         <v>29.818545900327688</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190">
+    <row r="190" x14ac:dyDescent="0.2">
+      <c r="A190" s="0">
         <v>28.034004067552281</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="0">
         <v>24.647452285857437</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="0">
         <v>25.80176306949026</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191">
+    <row r="191" x14ac:dyDescent="0.2">
+      <c r="A191" s="0">
         <v>26.633184735569642</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="0">
         <v>28.616339034933826</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="0">
         <v>29.227181962118852</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192">
+    <row r="192" x14ac:dyDescent="0.2">
+      <c r="A192" s="0">
         <v>25.436243508391136</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="0">
         <v>23.493797163392667</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="0">
         <v>24.60547609000427</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193">
+    <row r="193" x14ac:dyDescent="0.2">
+      <c r="A193" s="0">
         <v>22.649952044327161</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="0">
         <v>26.213713879266606</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="0">
         <v>24.288086089837705</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194">
+    <row r="194" x14ac:dyDescent="0.2">
+      <c r="A194" s="0">
         <v>23.979567602888554</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="0">
         <v>20.891737584243597</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="0">
         <v>27.573838584319535</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195">
+    <row r="195" x14ac:dyDescent="0.2">
+      <c r="A195" s="0">
         <v>21.402118894656962</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="0">
         <v>22.57920521597018</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="0">
         <v>22.843399945832818</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196">
+    <row r="196" x14ac:dyDescent="0.2">
+      <c r="A196" s="0">
         <v>20.955627722266872</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="0">
         <v>20.266145426101417</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="0">
         <v>23.871280867190958</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197">
+    <row r="197" x14ac:dyDescent="0.2">
+      <c r="A197" s="0">
         <v>29.199572679266232</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="0">
         <v>24.18595770037151</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="0">
         <v>34.368750302959967</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198">
+    <row r="198" x14ac:dyDescent="0.2">
+      <c r="A198" s="0">
         <v>29.577666288584378</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="0">
         <v>26.150952013757031</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="0">
         <v>25.858541848995205</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199">
+    <row r="199" x14ac:dyDescent="0.2">
+      <c r="A199" s="0">
         <v>29.101288992365447</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="0">
         <v>24.701918052616833</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="0">
         <v>32.322727873941616</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200">
+    <row r="200" x14ac:dyDescent="0.2">
+      <c r="A200" s="0">
         <v>20.569005360404073</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="0">
         <v>28.739199415716424</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="0">
         <v>25.601446070148089</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201">
+    <row r="201" x14ac:dyDescent="0.2">
+      <c r="A201" s="0">
         <v>34.450371358230072</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="0">
         <v>41.101092180314872</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="0">
         <v>40.262490511679943</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202">
+    <row r="202" x14ac:dyDescent="0.2">
+      <c r="A202" s="0">
         <v>22.767487165093495</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="0">
         <v>28.127398912684924</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="0">
         <v>33.900903152094244</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203">
+    <row r="203" x14ac:dyDescent="0.2">
+      <c r="A203" s="0">
         <v>22.410708217980307</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="0">
         <v>28.605284024213564</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="0">
         <v>33.702253911997815</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204">
+    <row r="204" x14ac:dyDescent="0.2">
+      <c r="A204" s="0">
         <v>28.057998973954</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="0">
         <v>27.814485010436204</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="0">
         <v>37.107499454132984</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205">
+    <row r="205" x14ac:dyDescent="0.2">
+      <c r="A205" s="0">
         <v>26.416326799715506</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="0">
         <v>26.000870720478009</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="0">
         <v>35.036995698698597</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206">
+    <row r="206" x14ac:dyDescent="0.2">
+      <c r="A206" s="0">
         <v>20.958042267562526</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="0">
         <v>24.265681441780579</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="0">
         <v>31.534767318002384</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207">
+    <row r="207" x14ac:dyDescent="0.2">
+      <c r="A207" s="0">
         <v>29.375560396343886</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="0">
         <v>25.229601877953709</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="0">
         <v>31.718997272744573</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208">
+    <row r="208" x14ac:dyDescent="0.2">
+      <c r="A208" s="0">
         <v>34.862527733729507</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="0">
         <v>26.967860272487343</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="0">
         <v>33.524524111041522</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209">
+    <row r="209" x14ac:dyDescent="0.2">
+      <c r="A209" s="0">
         <v>24.109013582894519</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="0">
         <v>23.276715700508692</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="0">
         <v>29.092959589023227</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210">
+    <row r="210" x14ac:dyDescent="0.2">
+      <c r="A210" s="0">
         <v>28.17986195793144</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="0">
         <v>26.021327987862339</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="0">
         <v>25.166776246158147</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211">
+    <row r="211" x14ac:dyDescent="0.2">
+      <c r="A211" s="0">
         <v>28.205556087593983</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="0">
         <v>28.180565454632372</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="0">
         <v>37.917830025111925</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212">
+    <row r="212" x14ac:dyDescent="0.2">
+      <c r="A212" s="0">
         <v>26.242922080737465</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="0">
         <v>25.107051583931021</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="0">
         <v>25.880619576373089</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213">
+    <row r="213" x14ac:dyDescent="0.2">
+      <c r="A213" s="0">
         <v>25.565765513529119</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="0">
         <v>31.899282996477741</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="0">
         <v>27.347088137200931</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214">
+    <row r="214" x14ac:dyDescent="0.2">
+      <c r="A214" s="0">
         <v>35.453129803453649</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="0">
         <v>32.955514764086885</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="0">
         <v>30.308526668720617</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215">
+    <row r="215" x14ac:dyDescent="0.2">
+      <c r="A215" s="0">
         <v>22.48039682750165</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="0">
         <v>25.49454279206104</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="0">
         <v>31.846233057936548</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216">
+    <row r="216" x14ac:dyDescent="0.2">
+      <c r="A216" s="0">
         <v>20.865502881238463</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="0">
         <v>21.903919251124616</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="0">
         <v>33.189717725753248</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217">
+    <row r="217" x14ac:dyDescent="0.2">
+      <c r="A217" s="0">
         <v>31.535008847198426</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="0">
         <v>26.496635844976844</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="0">
         <v>35.965968026594304</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218">
+    <row r="218" x14ac:dyDescent="0.2">
+      <c r="A218" s="0">
         <v>27.406710078437882</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="0">
         <v>25.264893424050456</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="0">
         <v>30.288652012281077</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219">
+    <row r="219" x14ac:dyDescent="0.2">
+      <c r="A219" s="0">
         <v>24.781335784336985</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="0">
         <v>29.158448454300277</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="0">
         <v>27.377899548140601</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220">
+    <row r="220" x14ac:dyDescent="0.2">
+      <c r="A220" s="0">
         <v>25.2027123662942</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="0">
         <v>38.997186917662887</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="0">
         <v>28.636607619336701</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221">
+    <row r="221" x14ac:dyDescent="0.2">
+      <c r="A221" s="0">
         <v>32.671060040724804</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="0">
         <v>29.077757488658374</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="0">
         <v>38.773380320055836</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222">
+    <row r="222" x14ac:dyDescent="0.2">
+      <c r="A222" s="0">
         <v>24.484175279026758</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="0">
         <v>27.881895332086668</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="0">
         <v>25.691622715450141</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223">
+    <row r="223" x14ac:dyDescent="0.2">
+      <c r="A223" s="0">
         <v>38.066627518039311</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="0">
         <v>34.299016591842104</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="0">
         <v>36.419665251162691</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224">
+    <row r="224" x14ac:dyDescent="0.2">
+      <c r="A224" s="0">
         <v>30.423633160898383</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="0">
         <v>29.366239458668613</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="0">
         <v>37.135781951450603</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225">
+    <row r="225" x14ac:dyDescent="0.2">
+      <c r="A225" s="0">
         <v>31.180531934053572</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="0">
         <v>28.691991656658804</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="0">
         <v>40.788192817093709</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226">
+    <row r="226" x14ac:dyDescent="0.2">
+      <c r="A226" s="0">
         <v>31.450270417556229</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="0">
         <v>26.661518959950719</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="0">
         <v>27.270096400299245</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227">
+    <row r="227" x14ac:dyDescent="0.2">
+      <c r="A227" s="0">
         <v>41.455255457376801</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="0">
         <v>41.460266617210287</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="0">
         <v>42.209483438435647</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228">
+    <row r="228" x14ac:dyDescent="0.2">
+      <c r="A228" s="0">
         <v>40.806269037813045</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="0">
         <v>36.923411429604322</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="0">
         <v>36.083890034699287</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229">
+    <row r="229" x14ac:dyDescent="0.2">
+      <c r="A229" s="0">
         <v>28.035038318891498</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="0">
         <v>29.69059225464428</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="0">
         <v>29.179241735365881</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230">
+    <row r="230" x14ac:dyDescent="0.2">
+      <c r="A230" s="0">
         <v>27.207297299134652</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="0">
         <v>28.755086394639115</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="0">
         <v>36.730488167085852</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231">
+    <row r="231" x14ac:dyDescent="0.2">
+      <c r="A231" s="0">
         <v>26.675047473843915</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="0">
         <v>27.316896714388744</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="0">
         <v>31.775167682312766</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232">
+    <row r="232" x14ac:dyDescent="0.2">
+      <c r="A232" s="0">
         <v>30.518667370031203</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="0">
         <v>26.733529775380546</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="0">
         <v>27.025359252018475</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233">
+    <row r="233" x14ac:dyDescent="0.2">
+      <c r="A233" s="0">
         <v>28.291459560698659</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="0">
         <v>26.611053551092766</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="0">
         <v>30.392218680853361</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234">
+    <row r="234" x14ac:dyDescent="0.2">
+      <c r="A234" s="0">
         <v>28.371811358458423</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="0">
         <v>27.518710708529667</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="0">
         <v>30.997866566336462</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235">
+    <row r="235" x14ac:dyDescent="0.2">
+      <c r="A235" s="0">
         <v>23.540327022852029</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="0">
         <v>28.502162358597698</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="0">
         <v>32.277407635943135</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236">
+    <row r="236" x14ac:dyDescent="0.2">
+      <c r="A236" s="0">
         <v>29.68934132380955</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="0">
         <v>25.06300638781088</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="0">
         <v>34.780616432389785</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237">
+    <row r="237" x14ac:dyDescent="0.2">
+      <c r="A237" s="0">
         <v>19.06094680404486</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="0">
         <v>22.732673870524255</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="0">
         <v>21.510756943352266</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238">
+    <row r="238" x14ac:dyDescent="0.2">
+      <c r="A238" s="0">
         <v>41.62120000766901</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="0">
         <v>34.619793384524769</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="0">
         <v>35.690417389544763</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239">
+    <row r="239" x14ac:dyDescent="0.2">
+      <c r="A239" s="0">
         <v>31.98341117746477</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="0">
         <v>28.351526718782381</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="0">
         <v>30.798016094077138</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240">
+    <row r="240" x14ac:dyDescent="0.2">
+      <c r="A240" s="0">
         <v>23.876045031578847</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="0">
         <v>16.704261607802213</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="0">
         <v>18.483080647607597</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241">
+    <row r="241" x14ac:dyDescent="0.2">
+      <c r="A241" s="0">
         <v>27.630511997245144</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="0">
         <v>26.529158398876927</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="0">
         <v>27.040141744182225</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242">
+    <row r="242" x14ac:dyDescent="0.2">
+      <c r="A242" s="0">
         <v>35.678018763156913</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="0">
         <v>34.006441762949116</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="0">
         <v>36.274711408253573</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243">
+    <row r="243" x14ac:dyDescent="0.2">
+      <c r="A243" s="0">
         <v>25.526724475455925</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="0">
         <v>31.721065279699843</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="0">
         <v>33.097899921318238</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244">
+    <row r="244" x14ac:dyDescent="0.2">
+      <c r="A244" s="0">
         <v>27.806233971469158</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="0">
         <v>32.195644713489429</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="0">
         <v>39.108475101780037</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245">
+    <row r="245" x14ac:dyDescent="0.2">
+      <c r="A245" s="0">
         <v>29.048132731739216</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="0">
         <v>32.63650433967419</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="0">
         <v>37.352922160839547</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246">
+    <row r="246" x14ac:dyDescent="0.2">
+      <c r="A246" s="0">
         <v>25.525167375863443</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="0">
         <v>40.497351199749019</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="0">
         <v>35.019437305741938</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247">
+    <row r="247" x14ac:dyDescent="0.2">
+      <c r="A247" s="0">
         <v>24.522108964369711</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="0">
         <v>33.526576016109125</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="0">
         <v>26.960753488411971</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248">
+    <row r="248" x14ac:dyDescent="0.2">
+      <c r="A248" s="0">
         <v>22.001915185412741</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="0">
         <v>24.526616120202462</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="0">
         <v>29.883312354496731</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249">
+    <row r="249" x14ac:dyDescent="0.2">
+      <c r="A249" s="0">
         <v>20.662191385888871</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="0">
         <v>37.866542625372347</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="0">
         <v>44.265732939148137</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250">
+    <row r="250" x14ac:dyDescent="0.2">
+      <c r="A250" s="0">
         <v>23.278719217988666</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="0">
         <v>22.894943413210825</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="0">
         <v>20.355491250028557</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251">
+    <row r="251" x14ac:dyDescent="0.2">
+      <c r="A251" s="0">
         <v>28.827443088004252</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="0">
         <v>26.755234372453081</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="0">
         <v>31.915194434444039</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252">
+    <row r="252" x14ac:dyDescent="0.2">
+      <c r="A252" s="0">
         <v>19.244232366288593</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="0">
         <v>25.100573842065952</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="0">
         <v>34.922972774197518</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253">
+    <row r="253" x14ac:dyDescent="0.2">
+      <c r="A253" s="0">
         <v>17.232686204344454</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="0">
         <v>36.408613172180623</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="0">
         <v>24.73441642109799</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254">
+    <row r="254" x14ac:dyDescent="0.2">
+      <c r="A254" s="0">
         <v>31.508051308228932</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="0">
         <v>41.414828205003204</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="0">
         <v>56.46523866210368</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255">
+    <row r="255" x14ac:dyDescent="0.2">
+      <c r="A255" s="0">
         <v>22.904723953699246</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="0">
         <v>23.275288837703918</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="0">
         <v>29.049486407981213</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256">
+    <row r="256" x14ac:dyDescent="0.2">
+      <c r="A256" s="0">
         <v>25.372534224274652</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="0">
         <v>27.558688214772715</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="0">
         <v>25.771016392278852</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257">
+    <row r="257" x14ac:dyDescent="0.2">
+      <c r="A257" s="0">
         <v>18.501700570566733</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="0">
         <v>18.887548418818238</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="0">
         <v>20.988848583963915</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258">
+    <row r="258" x14ac:dyDescent="0.2">
+      <c r="A258" s="0">
         <v>21.671981969629872</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="0">
         <v>22.023553242961267</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="0">
         <v>30.926890783510672</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259">
+    <row r="259" x14ac:dyDescent="0.2">
+      <c r="A259" s="0">
         <v>21.282710073837098</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="0">
         <v>22.626706304225589</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="0">
         <v>24.106774796131347</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260">
+    <row r="260" x14ac:dyDescent="0.2">
+      <c r="A260" s="0">
         <v>30.335404807573834</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="0">
         <v>27.125568329779746</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="0">
         <v>30.818238001377807</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261">
+    <row r="261" x14ac:dyDescent="0.2">
+      <c r="A261" s="0">
         <v>28.384867995486317</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="0">
         <v>26.152770494719149</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="0">
         <v>31.356408253472267</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262">
+    <row r="262" x14ac:dyDescent="0.2">
+      <c r="A262" s="0">
         <v>21.18308232836171</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="0">
         <v>21.029508415872812</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="0">
         <v>22.908316412490123</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263">
+    <row r="263" x14ac:dyDescent="0.2">
+      <c r="A263" s="0">
         <v>21.48541614656402</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="0">
         <v>25.180356812989309</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="0">
         <v>29.840200173877992</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264">
+    <row r="264" x14ac:dyDescent="0.2">
+      <c r="A264" s="0">
         <v>17.785844803036351</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="0">
         <v>23.231703956329468</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="0">
         <v>24.123542227312452</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265">
+    <row r="265" x14ac:dyDescent="0.2">
+      <c r="A265" s="0">
         <v>29.938710393834235</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="0">
         <v>27.977399418446367</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="0">
         <v>33.28108817949272</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266">
+    <row r="266" x14ac:dyDescent="0.2">
+      <c r="A266" s="0">
         <v>23.376181006125737</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="0">
         <v>26.236401008790736</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="0">
         <v>30.55544437990272</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267">
+    <row r="267" x14ac:dyDescent="0.2">
+      <c r="A267" s="0">
         <v>24.602973321690058</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="0">
         <v>25.308117660785047</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="0">
         <v>25.654313068068102</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268">
+    <row r="268" x14ac:dyDescent="0.2">
+      <c r="A268" s="0">
         <v>24.928901752887253</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="0">
         <v>27.317783035623965</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="0">
         <v>27.930115649161422</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269">
+    <row r="269" x14ac:dyDescent="0.2">
+      <c r="A269" s="0">
         <v>26.034529723119949</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="0">
         <v>26.300138318192129</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="0">
         <v>30.335563972200116</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270">
+    <row r="270" x14ac:dyDescent="0.2">
+      <c r="A270" s="0">
         <v>24.987903986367101</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="0">
         <v>25.488204257812399</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="0">
         <v>27.09923503379963</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271">
+    <row r="271" x14ac:dyDescent="0.2">
+      <c r="A271" s="0">
         <v>22.652137311149808</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="0">
         <v>24.374765429876955</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="0">
         <v>28.064813929685691</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272">
+    <row r="272" x14ac:dyDescent="0.2">
+      <c r="A272" s="0">
         <v>30.25018986738456</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="0">
         <v>21.753006828700226</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="0">
         <v>24.665608515238421</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273">
+    <row r="273" x14ac:dyDescent="0.2">
+      <c r="A273" s="0">
         <v>38.85335462491458</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="0">
         <v>27.843643580285647</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="0">
         <v>35.90855034283323</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274">
+    <row r="274" x14ac:dyDescent="0.2">
+      <c r="A274" s="0">
         <v>26.975744359766203</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="0">
         <v>33.287183141427846</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="0">
         <v>26.256953750554828</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275">
+    <row r="275" x14ac:dyDescent="0.2">
+      <c r="A275" s="0">
         <v>21.038403356676756</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="0">
         <v>31.096186317130076</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="0">
         <v>25.919132358703049</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276">
+    <row r="276" x14ac:dyDescent="0.2">
+      <c r="A276" s="0">
         <v>31.607560390195271</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="0">
         <v>28.639384990407443</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="0">
         <v>31.237678925828384</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277">
+    <row r="277" x14ac:dyDescent="0.2">
+      <c r="A277" s="0">
         <v>24.286729157220172</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="0">
         <v>25.320788935385064</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="0">
         <v>31.636534724548227</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278">
+    <row r="278" x14ac:dyDescent="0.2">
+      <c r="A278" s="0">
         <v>21.389263594684689</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="0">
         <v>26.886655778797017</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="0">
         <v>24.522315704887728</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279">
+    <row r="279" x14ac:dyDescent="0.2">
+      <c r="A279" s="0">
         <v>28.870721471881897</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="0">
         <v>23.35633820624324</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="0">
         <v>31.293766829911728</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280">
+    <row r="280" x14ac:dyDescent="0.2">
+      <c r="A280" s="0">
         <v>24.069451273530781</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="0">
         <v>25.963580211421824</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="0">
         <v>29.149960047589431</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281">
+    <row r="281" x14ac:dyDescent="0.2">
+      <c r="A281" s="0">
         <v>27.859151754845577</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="0">
         <v>26.728300310752971</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="0">
         <v>32.05852020724344</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282">
+    <row r="282" x14ac:dyDescent="0.2">
+      <c r="A282" s="0">
         <v>19.201449101239973</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="0">
         <v>21.689837993022355</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="0">
         <v>21.839236773696154</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283">
+    <row r="283" x14ac:dyDescent="0.2">
+      <c r="A283" s="0">
         <v>27.709487759420725</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="0">
         <v>24.857214762211381</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="0">
         <v>29.694831658227614</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284">
+    <row r="284" x14ac:dyDescent="0.2">
+      <c r="A284" s="0">
         <v>23.269019093461065</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="0">
         <v>19.300464983334795</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="0">
         <v>25.43918473397931</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285">
+    <row r="285" x14ac:dyDescent="0.2">
+      <c r="A285" s="0">
         <v>19.844979169617073</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="0">
         <v>29.063781446891198</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="0">
         <v>26.259260766661857</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286">
+    <row r="286" x14ac:dyDescent="0.2">
+      <c r="A286" s="0">
         <v>27.002688423121434</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="0">
         <v>29.457130524643251</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="0">
         <v>28.124117447856911</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287">
+    <row r="287" x14ac:dyDescent="0.2">
+      <c r="A287" s="0">
         <v>29.583026617626963</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="0">
         <v>20.91589765367182</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="0">
         <v>34.358227912434636</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288">
+    <row r="288" x14ac:dyDescent="0.2">
+      <c r="A288" s="0">
         <v>31.317291643015139</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="0">
         <v>34.623139398793576</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="0">
         <v>27.155462139633361</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289">
+    <row r="289" x14ac:dyDescent="0.2">
+      <c r="A289" s="0">
         <v>18.352976547850549</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="0">
         <v>21.243682188277162</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="0">
         <v>32.783752865662592</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290">
+    <row r="290" x14ac:dyDescent="0.2">
+      <c r="A290" s="0">
         <v>25.179557309872742</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="0">
         <v>31.279910939616133</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="0">
         <v>34.959463236440953</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291">
+    <row r="291" x14ac:dyDescent="0.2">
+      <c r="A291" s="0">
         <v>26.939724719560971</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="0">
         <v>30.607225695257771</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="0">
         <v>33.661119877252176</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292">
+    <row r="292" x14ac:dyDescent="0.2">
+      <c r="A292" s="0">
         <v>23.701412636740336</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="0">
         <v>30.100571275790326</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="0">
         <v>18.62920772435136</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293">
+    <row r="293" x14ac:dyDescent="0.2">
+      <c r="A293" s="0">
         <v>41.889176862204607</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="0">
         <v>32.864694004904855</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="0">
         <v>30.866869567448095</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294">
+    <row r="294" x14ac:dyDescent="0.2">
+      <c r="A294" s="0">
         <v>25.498572706090123</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="0">
         <v>28.232348853316353</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="0">
         <v>32.223570307239214</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295">
+    <row r="295" x14ac:dyDescent="0.2">
+      <c r="A295" s="0">
         <v>26.63620276023568</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="0">
         <v>23.297654493856733</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="0">
         <v>31.018589089720695</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296">
+    <row r="296" x14ac:dyDescent="0.2">
+      <c r="A296" s="0">
         <v>21.59533312574883</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="0">
         <v>27.233539922449118</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="0">
         <v>27.957253581132967</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297">
+    <row r="297" x14ac:dyDescent="0.2">
+      <c r="A297" s="0">
         <v>33.730651535293411</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="0">
         <v>29.65143518865483</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="0">
         <v>28.192797541924222</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298">
+    <row r="298" x14ac:dyDescent="0.2">
+      <c r="A298" s="0">
         <v>24.29165559504305</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="0">
         <v>25.013469070346069</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="0">
         <v>33.303154810829021</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299">
+    <row r="299" x14ac:dyDescent="0.2">
+      <c r="A299" s="0">
         <v>36.527197420437616</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="0">
         <v>33.907732684250867</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="0">
         <v>33.80545470419095</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300">
+    <row r="300" x14ac:dyDescent="0.2">
+      <c r="A300" s="0">
         <v>23.20478168480669</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="0">
         <v>28.374452251783971</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="0">
         <v>30.973030233642589</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301">
+    <row r="301" x14ac:dyDescent="0.2">
+      <c r="A301" s="0">
         <v>29.63669231734794</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="0">
         <v>25.973587875695248</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="0">
         <v>39.382716077019239</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302">
+    <row r="302" x14ac:dyDescent="0.2">
+      <c r="A302" s="0">
         <v>38.606954912912876</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="0">
         <v>37.664657061034397</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="0">
         <v>40.626972815964123</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303">
+    <row r="303" x14ac:dyDescent="0.2">
+      <c r="A303" s="0">
         <v>27.920598857178536</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="0">
         <v>28.486467359510595</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="0">
         <v>19.668429760861478</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304">
+    <row r="304" x14ac:dyDescent="0.2">
+      <c r="A304" s="0">
         <v>28.63271230597929</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="0">
         <v>23.717701611344705</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="0">
         <v>27.072707161680778</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305">
+    <row r="305" x14ac:dyDescent="0.2">
+      <c r="A305" s="0">
         <v>26.514952059826783</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="0">
         <v>28.407571656989287</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="0">
         <v>39.280785495066198</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306">
+    <row r="306" x14ac:dyDescent="0.2">
+      <c r="A306" s="0">
         <v>22.529262667526524</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="0">
         <v>28.543081137273479</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="0">
         <v>28.354980550605571</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307">
+    <row r="307" x14ac:dyDescent="0.2">
+      <c r="A307" s="0">
         <v>30.175004379034796</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="0">
         <v>28.702467430810589</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="0">
         <v>33.173770023208142</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308">
+    <row r="308" x14ac:dyDescent="0.2">
+      <c r="A308" s="0">
         <v>32.297208242461792</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="0">
         <v>30.727463990510582</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="0">
         <v>32.71725110177097</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309">
+    <row r="309" x14ac:dyDescent="0.2">
+      <c r="A309" s="0">
         <v>30.44833728188496</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="0">
         <v>38.407496060061526</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="0">
         <v>37.893883978020689</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310">
+    <row r="310" x14ac:dyDescent="0.2">
+      <c r="A310" s="0">
         <v>28.938106890563315</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="0">
         <v>30.177208791967971</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="0">
         <v>34.040278822744668</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311">
+    <row r="311" x14ac:dyDescent="0.2">
+      <c r="A311" s="0">
         <v>33.657811496902326</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="0">
         <v>25.289491023827214</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="0">
         <v>32.871715934837106</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312">
+    <row r="312" x14ac:dyDescent="0.2">
+      <c r="A312" s="0">
         <v>32.841003951138312</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="0">
         <v>49.349796853999671</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="0">
         <v>34.095218956751751</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313">
+    <row r="313" x14ac:dyDescent="0.2">
+      <c r="A313" s="0">
         <v>25.102078452319532</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="0">
         <v>31.005827426610217</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="0">
         <v>31.015468817537066</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314">
+    <row r="314" x14ac:dyDescent="0.2">
+      <c r="A314" s="0">
         <v>31.291103373156016</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="0">
         <v>28.522757149839354</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="0">
         <v>32.704455937122788</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315">
+    <row r="315" x14ac:dyDescent="0.2">
+      <c r="A315" s="0">
         <v>24.52387540265233</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="0">
         <v>41.73094619222703</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="0">
         <v>42.058521470673625</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316">
+    <row r="316" x14ac:dyDescent="0.2">
+      <c r="A316" s="0">
         <v>25.405892131654973</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="0">
         <v>28.470093862402329</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="0">
         <v>28.159635796926736</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317">
+    <row r="317" x14ac:dyDescent="0.2">
+      <c r="A317" s="0">
         <v>27.711424950907357</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="0">
         <v>34.815468553701265</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="0">
         <v>38.313282739015932</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318">
+    <row r="318" x14ac:dyDescent="0.2">
+      <c r="A318" s="0">
         <v>35.25597534872194</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="0">
         <v>38.419788394710423</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="0">
         <v>42.888928459422182</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319">
+    <row r="319" x14ac:dyDescent="0.2">
+      <c r="A319" s="0">
         <v>34.445042761387803</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="0">
         <v>39.952486398693566</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="0">
         <v>43.266142491490655</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320">
+    <row r="320" x14ac:dyDescent="0.2">
+      <c r="A320" s="0">
         <v>32.056130628088759</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="0">
         <v>30.486339731038409</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="0">
         <v>21.011555414127745</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A321">
+    <row r="321" x14ac:dyDescent="0.2">
+      <c r="A321" s="0">
         <v>32.728888102879893</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="0">
         <v>36.410320018950614</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="0">
         <v>33.63227422385075</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A322">
+    <row r="322" x14ac:dyDescent="0.2">
+      <c r="A322" s="0">
         <v>26.843739467995182</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="0">
         <v>28.067599778734856</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="0">
         <v>37.824852879769885</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A323">
+    <row r="323" x14ac:dyDescent="0.2">
+      <c r="A323" s="0">
         <v>28.472608943011426</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="0">
         <v>27.856329475691219</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="0">
         <v>30.706037416987112</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A324">
+    <row r="324" x14ac:dyDescent="0.2">
+      <c r="A324" s="0">
         <v>32.986361659109434</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="0">
         <v>32.11527672491934</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="0">
         <v>44.890848455883962</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A325">
+    <row r="325" x14ac:dyDescent="0.2">
+      <c r="A325" s="0">
         <v>26.584779800613251</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="0">
         <v>25.863245249579116</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="0">
         <v>36.285287175478601</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A326">
+    <row r="326" x14ac:dyDescent="0.2">
+      <c r="A326" s="0">
         <v>27.016927057650456</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="0">
         <v>27.282176666820565</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="0">
         <v>22.361560641685646</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A327">
+    <row r="327" x14ac:dyDescent="0.2">
+      <c r="A327" s="0">
         <v>34.860498684484774</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="0">
         <v>36.738632757744888</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="0">
         <v>36.485250318354105</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A328">
+    <row r="328" x14ac:dyDescent="0.2">
+      <c r="A328" s="0">
         <v>35.994901271759666</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="0">
         <v>31.113663563578275</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="0">
         <v>36.314724526637534</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A329">
+    <row r="329" x14ac:dyDescent="0.2">
+      <c r="A329" s="0">
         <v>43.944293448490171</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="0">
         <v>45.460385535820912</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="0">
         <v>27.409505743034856</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A330">
+    <row r="330" x14ac:dyDescent="0.2">
+      <c r="A330" s="0">
         <v>28.929540130911942</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="0">
         <v>30.869639345888263</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="0">
         <v>36.18543528143222</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A331">
+    <row r="331" x14ac:dyDescent="0.2">
+      <c r="A331" s="0">
         <v>34.648642683910616</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="0">
         <v>40.263707499329975</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="0">
         <v>44.595713317006194</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A332">
+    <row r="332" x14ac:dyDescent="0.2">
+      <c r="A332" s="0">
         <v>29.720786691768382</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="0">
         <v>39.184199050748738</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="0">
         <v>34.924501399759585</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A333">
+    <row r="333" x14ac:dyDescent="0.2">
+      <c r="A333" s="0">
         <v>28.687108475281732</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="0">
         <v>34.195720200484161</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="0">
         <v>43.033093890090129</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A334">
+    <row r="334" x14ac:dyDescent="0.2">
+      <c r="A334" s="0">
         <v>33.120824351375155</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="0">
         <v>42.404699771205884</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="0">
         <v>49.017263218244096</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A335">
+    <row r="335" x14ac:dyDescent="0.2">
+      <c r="A335" s="0">
         <v>23.651887458259331</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="0">
         <v>30.601932043588064</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="0">
         <v>23.469942200912801</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A336">
+    <row r="336" x14ac:dyDescent="0.2">
+      <c r="A336" s="0">
         <v>32.120606873181245</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="0">
         <v>37.253999890927517</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="0">
         <v>47.262710479648575</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A337">
+    <row r="337" x14ac:dyDescent="0.2">
+      <c r="A337" s="0">
         <v>56.109764446930157</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="0">
         <v>41.757426164844723</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="0">
         <v>38.344807496769015</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A338">
+    <row r="338" x14ac:dyDescent="0.2">
+      <c r="A338" s="0">
         <v>32.603623572711875</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="0">
         <v>36.953500560101496</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="0">
         <v>24.590332467620794</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A339">
+    <row r="339" x14ac:dyDescent="0.2">
+      <c r="A339" s="0">
         <v>23.318183949445842</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="0">
         <v>23.529303795236572</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="0">
         <v>36.044916590647141</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A340">
+    <row r="340" x14ac:dyDescent="0.2">
+      <c r="A340" s="0">
         <v>42.090715516825576</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="0">
         <v>26.013029963522289</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="0">
         <v>34.015189072885683</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A341">
+    <row r="341" x14ac:dyDescent="0.2">
+      <c r="A341" s="0">
         <v>44.057085121530612</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="0">
         <v>29.715466487095984</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="0">
         <v>39.157809607703847</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A342">
+    <row r="342" x14ac:dyDescent="0.2">
+      <c r="A342" s="0">
         <v>29.198743626162351</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="0">
         <v>33.232585476365657</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="0">
         <v>31.705480565022299</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A343">
+    <row r="343" x14ac:dyDescent="0.2">
+      <c r="A343" s="0">
         <v>34.98391245122685</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="0">
         <v>29.881830897270277</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="0">
         <v>49.807451968148179</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A344">
+    <row r="344" x14ac:dyDescent="0.2">
+      <c r="A344" s="0">
         <v>24.08128555901904</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="0">
         <v>28.365482256934207</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="0">
         <v>30.791647167648843</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A345">
+    <row r="345" x14ac:dyDescent="0.2">
+      <c r="A345" s="0">
         <v>41.138844044742036</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="0">
         <v>34.200037382631578</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="0">
         <v>45.239207925624349</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A346">
+    <row r="346" x14ac:dyDescent="0.2">
+      <c r="A346" s="0">
         <v>48.519162266859787</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="0">
         <v>50.919923646596217</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="0">
         <v>49.92889475683058</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A347">
+    <row r="347" x14ac:dyDescent="0.2">
+      <c r="A347" s="0">
         <v>31.545100104562529</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="0">
         <v>24.233386531444712</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="0">
         <v>40.126734914880061</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A348">
+    <row r="348" x14ac:dyDescent="0.2">
+      <c r="A348" s="0">
         <v>28.331688489656759</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="0">
         <v>33.060042184115659</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="0">
         <v>39.027835440893618</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A349">
+    <row r="349" x14ac:dyDescent="0.2">
+      <c r="A349" s="0">
         <v>32.187452333202209</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="0">
         <v>47.298082497959221</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="0">
         <v>40.436199142689382</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A350">
+    <row r="350" x14ac:dyDescent="0.2">
+      <c r="A350" s="0">
         <v>57.427221551629735</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="0">
         <v>49.812252679448783</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="0">
         <v>67.672197832870609</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A351">
+    <row r="351" x14ac:dyDescent="0.2">
+      <c r="A351" s="0">
         <v>53.22404849860304</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="0">
         <v>41.577127563523561</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="0">
         <v>40.91178258181705</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A352">
+    <row r="352" x14ac:dyDescent="0.2">
+      <c r="A352" s="0">
         <v>26.78377411077491</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="0">
         <v>37.158993283996374</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="0">
         <v>44.400393306255189</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A353">
+    <row r="353" x14ac:dyDescent="0.2">
+      <c r="A353" s="0">
         <v>33.147596766938108</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="0">
         <v>58.61268754329938</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="0">
         <v>33.072442234255064</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A354">
+    <row r="354" x14ac:dyDescent="0.2">
+      <c r="A354" s="0">
         <v>40.266820502029255</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="0">
         <v>37.127641480606329</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="0">
         <v>49.381055775063437</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A355">
+    <row r="355" x14ac:dyDescent="0.2">
+      <c r="A355" s="0">
         <v>33.136668293221447</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="0">
         <v>67.079353663151835</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="0">
         <v>31.890083436553191</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A356">
+    <row r="356" x14ac:dyDescent="0.2">
+      <c r="A356" s="0">
         <v>28.065526927929302</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="0">
         <v>40.72949109343466</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="0">
         <v>25.71306448873219</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A357">
+    <row r="357" x14ac:dyDescent="0.2">
+      <c r="A357" s="0">
         <v>35.470441060768046</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="0">
         <v>33.121927787177988</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="0">
         <v>55.331951942182272</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A358">
+    <row r="358" x14ac:dyDescent="0.2">
+      <c r="A358" s="0">
         <v>47.151439592919203</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="0">
         <v>39.551944605651506</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="0">
         <v>23.559509699295315</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A359">
+    <row r="359" x14ac:dyDescent="0.2">
+      <c r="A359" s="0">
         <v>38.92204191244064</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="0">
         <v>47.24657642263616</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A360">
+      <c r="C359" s="0"/>
+    </row>
+    <row r="360" x14ac:dyDescent="0.2">
+      <c r="A360" s="0">
         <v>22.462252023810194</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="0">
         <v>37.726332733943231</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="0">
         <v>39.855058510757672</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A361">
+    <row r="361" x14ac:dyDescent="0.2">
+      <c r="A361" s="0">
         <v>33.100394066350376</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="0">
         <v>29.406754620172162</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="0">
         <v>26.148900260437514</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A362">
+    <row r="362" x14ac:dyDescent="0.2">
+      <c r="A362" s="0">
         <v>41.942262238707862</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="0">
         <v>53.917206502927343</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="0">
         <v>48.909876641082597</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A363">
+    <row r="363" x14ac:dyDescent="0.2">
+      <c r="A363" s="0">
         <v>44.118072036655967</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="0">
         <v>38.555400468678165</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="0">
         <v>77.048977083305857</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A364">
+    <row r="364" x14ac:dyDescent="0.2">
+      <c r="A364" s="0">
         <v>62.548883695931238</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="0">
         <v>35.189824195953335</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="0">
         <v>59.905363131083256</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A365">
+    <row r="365" x14ac:dyDescent="0.2">
+      <c r="A365" s="0">
         <v>25.891020464447795</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="0">
         <v>53.814486031737189</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="0">
         <v>40.352501001001372</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A366">
+    <row r="366" x14ac:dyDescent="0.2">
+      <c r="A366" s="0">
         <v>16.098577106771675</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="0">
         <v>16.502367533419235</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="0">
         <v>16.395299365946794</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A367">
+    <row r="367" x14ac:dyDescent="0.2">
+      <c r="A367" s="0">
         <v>21.904909676241925</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="0">
         <v>21.474868320351863</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="0">
         <v>23.158657280660261</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A368">
+    <row r="368" x14ac:dyDescent="0.2">
+      <c r="A368" s="0">
         <v>17.981780257224216</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="0">
         <v>19.435297632546355</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="0">
         <v>21.858944559058038</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A369">
+    <row r="369" x14ac:dyDescent="0.2">
+      <c r="A369" s="0">
         <v>18.117300501125499</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="0">
         <v>19.286117085538802</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="0">
         <v>21.376969318096098</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A370">
+    <row r="370" x14ac:dyDescent="0.2">
+      <c r="A370" s="0">
         <v>16.314917390472445</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="0">
         <v>17.503894564959847</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="0">
         <v>16.353095581393379</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A371">
+    <row r="371" x14ac:dyDescent="0.2">
+      <c r="A371" s="0">
         <v>19.484840510225961</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="0">
         <v>20.314397979481946</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="0">
         <v>19.235056671191554</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A372">
+    <row r="372" x14ac:dyDescent="0.2">
+      <c r="A372" s="0">
         <v>17.918753180926917</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="0">
         <v>19.490004825425121</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="0">
         <v>22.762219682798285</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A373">
+    <row r="373" x14ac:dyDescent="0.2">
+      <c r="A373" s="0">
         <v>20.397263161251185</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="0">
         <v>23.88698070491067</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="0">
         <v>20.741092548334318</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A374">
+    <row r="374" x14ac:dyDescent="0.2">
+      <c r="A374" s="0">
         <v>24.345166780058609</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="0">
         <v>22.518779891906021</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="0">
         <v>22.454932690643719</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A375">
+    <row r="375" x14ac:dyDescent="0.2">
+      <c r="A375" s="0">
         <v>25.886480882678075</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="0">
         <v>26.19180711606764</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="0">
         <v>27.151571063535538</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A376">
+    <row r="376" x14ac:dyDescent="0.2">
+      <c r="A376" s="0">
         <v>20.75196168302049</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="0">
         <v>21.753105769403362</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="0">
         <v>22.518984829799525</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A377">
+    <row r="377" x14ac:dyDescent="0.2">
+      <c r="A377" s="0">
         <v>22.378961843074396</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="0">
         <v>24.654002350920024</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="0">
         <v>19.245761957061777</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A378">
+    <row r="378" x14ac:dyDescent="0.2">
+      <c r="A378" s="0">
         <v>21.74893381647842</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="0">
         <v>20.840757977056885</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="0">
         <v>22.299177925212248</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A379">
+    <row r="379" x14ac:dyDescent="0.2">
+      <c r="A379" s="0">
         <v>23.856832717460421</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="0">
         <v>24.109655502865113</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="0">
         <v>27.203062676733005</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A380">
+    <row r="380" x14ac:dyDescent="0.2">
+      <c r="A380" s="0">
         <v>18.45546874562497</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="0">
         <v>20.21107014362692</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="0">
         <v>24.426708025471193</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A381">
+    <row r="381" x14ac:dyDescent="0.2">
+      <c r="A381" s="0">
         <v>19.019121769997255</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="0">
         <v>18.097633431746345</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="0">
         <v>21.907330848996239</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A382">
+    <row r="382" x14ac:dyDescent="0.2">
+      <c r="A382" s="0">
         <v>20.296583261698693</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="0">
         <v>23.478394942934298</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="0">
         <v>25.533488071095096</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A383">
+    <row r="383" x14ac:dyDescent="0.2">
+      <c r="A383" s="0">
         <v>17.244220075054407</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="0">
         <v>19.364026076758538</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="0">
         <v>19.74301264767298</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A384">
+    <row r="384" x14ac:dyDescent="0.2">
+      <c r="A384" s="0">
         <v>20.643929596011034</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="0">
         <v>21.239163374305292</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="0">
         <v>25.932898475051289</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A385">
+    <row r="385" x14ac:dyDescent="0.2">
+      <c r="A385" s="0">
         <v>21.843541304736778</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="0">
         <v>26.15339882393506</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="0">
         <v>22.212130304224921</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A386">
+    <row r="386" x14ac:dyDescent="0.2">
+      <c r="A386" s="0">
         <v>20.763118003474727</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="0">
         <v>21.327977997807022</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="0">
         <v>23.237179250978059</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A387">
+    <row r="387" x14ac:dyDescent="0.2">
+      <c r="A387" s="0">
         <v>25.93699584709611</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="0">
         <v>27.33630393845149</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="0">
         <v>28.000592234130497</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A388">
+    <row r="388" x14ac:dyDescent="0.2">
+      <c r="A388" s="0">
         <v>17.912804720244377</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="0">
         <v>20.889972017356005</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="0">
         <v>25.485257214757805</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A389">
+    <row r="389" x14ac:dyDescent="0.2">
+      <c r="A389" s="0">
         <v>20.389398108214657</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="0">
         <v>23.41945500253394</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="0">
         <v>23.701410349546119</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A390">
+    <row r="390" x14ac:dyDescent="0.2">
+      <c r="A390" s="0">
         <v>17.368644666757486</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="0">
         <v>20.134273152335165</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="0">
         <v>20.072624730879792</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A391">
+    <row r="391" x14ac:dyDescent="0.2">
+      <c r="A391" s="0">
         <v>16.509294122336122</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="0">
         <v>17.168764113520862</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="0">
         <v>18.537672489119494</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A392">
+    <row r="392" x14ac:dyDescent="0.2">
+      <c r="A392" s="0">
         <v>14.903003226534189</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="0">
         <v>15.918563385123006</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="0">
         <v>16.097157693409216</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A393">
+    <row r="393" x14ac:dyDescent="0.2">
+      <c r="A393" s="0">
         <v>21.045152971660993</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="0">
         <v>23.365566156722338</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="0">
         <v>28.734089184434968</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A394">
+    <row r="394" x14ac:dyDescent="0.2">
+      <c r="A394" s="0">
         <v>21.483442308132702</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="0">
         <v>20.912420601005582</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="0">
         <v>25.370177000148047</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A395">
+    <row r="395" x14ac:dyDescent="0.2">
+      <c r="A395" s="0">
         <v>18.65006550060308</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="0">
         <v>13.215314106840404</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="0">
         <v>14.082265611943738</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A396">
+    <row r="396" x14ac:dyDescent="0.2">
+      <c r="A396" s="0">
         <v>20.012912203618797</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="0">
         <v>20.493684989027237</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="0">
         <v>25.720538263266185</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A397">
+    <row r="397" x14ac:dyDescent="0.2">
+      <c r="A397" s="0">
         <v>24.50016953049116</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="0">
         <v>33.016373567176458</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="0">
         <v>33.530094233605801</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A398">
+    <row r="398" x14ac:dyDescent="0.2">
+      <c r="A398" s="0">
         <v>29.792587323946453</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="0">
         <v>25.904279770833362</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="0">
         <v>27.437175366438638</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A399">
+    <row r="399" x14ac:dyDescent="0.2">
+      <c r="A399" s="0">
         <v>20.305685004869318</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="0">
         <v>30.893512939269627</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="0">
         <v>33.238612851491581</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A400">
+    <row r="400" x14ac:dyDescent="0.2">
+      <c r="A400" s="0">
         <v>18.072596406649801</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="0">
         <v>21.858349714815233</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="0">
         <v>22.05160678093856</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A401">
+    <row r="401" x14ac:dyDescent="0.2">
+      <c r="A401" s="0">
         <v>17.275303673727024</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="0">
         <v>35.986515698435461</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="0">
         <v>32.167070357745153</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A402">
+    <row r="402" x14ac:dyDescent="0.2">
+      <c r="A402" s="0">
         <v>26.761013533533873</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="0">
         <v>27.348842095993199</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="0">
         <v>35.349224810676489</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A403">
+    <row r="403" x14ac:dyDescent="0.2">
+      <c r="A403" s="0">
         <v>29.829128835557061</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="0">
         <v>19.926336635106708</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="0">
         <v>27.652494903882996</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A404">
+    <row r="404" x14ac:dyDescent="0.2">
+      <c r="A404" s="0">
         <v>19.320304909629492</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="0">
         <v>19.564997748633647</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="0">
         <v>18.368299898199272</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A405">
+    <row r="405" x14ac:dyDescent="0.2">
+      <c r="A405" s="0">
         <v>20.935377370490936</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="0">
         <v>24.719188309894253</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="0">
         <v>23.460606689839317</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A406">
+    <row r="406" x14ac:dyDescent="0.2">
+      <c r="A406" s="0">
         <v>22.346347564881796</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="0">
         <v>29.888479866659178</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="0">
         <v>30.072911590539615</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A407">
+    <row r="407" x14ac:dyDescent="0.2">
+      <c r="A407" s="0">
         <v>21.588779618232511</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="0">
         <v>21.493501315319364</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="0">
         <v>20.931516398644735</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A408">
+    <row r="408" x14ac:dyDescent="0.2">
+      <c r="A408" s="0">
         <v>18.423780082216101</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="0">
         <v>21.712404683457986</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="0">
         <v>30.048126478876579</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A409">
+    <row r="409" x14ac:dyDescent="0.2">
+      <c r="A409" s="0">
         <v>18.734986298451496</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="0">
         <v>17.085295609472912</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="0">
         <v>26.049989867698567</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A410">
+    <row r="410" x14ac:dyDescent="0.2">
+      <c r="A410" s="0">
         <v>21.426340196743997</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="0">
         <v>29.49804293595226</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="0">
         <v>24.235482807730175</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A411">
+    <row r="411" x14ac:dyDescent="0.2">
+      <c r="A411" s="0">
         <v>26.697145606447847</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="0">
         <v>26.777875023118447</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="0">
         <v>35.392416598503921</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A412">
+    <row r="412" x14ac:dyDescent="0.2">
+      <c r="A412" s="0">
         <v>21.142981385810728</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="0">
         <v>26.909137206984294</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="0">
         <v>23.196585524441588</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A413">
+    <row r="413" x14ac:dyDescent="0.2">
+      <c r="A413" s="0">
         <v>23.01086082743663</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="0">
         <v>21.560970127431993</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="0">
         <v>34.943761678737239</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A414">
+    <row r="414" x14ac:dyDescent="0.2">
+      <c r="A414" s="0">
         <v>18.954660035374808</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="0">
         <v>19.178818744320196</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="0">
         <v>17.08204007081833</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A415">
+    <row r="415" x14ac:dyDescent="0.2">
+      <c r="A415" s="0">
         <v>25.836219494769839</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="0">
         <v>34.878180690423754</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="0">
         <v>26.318508158892914</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A416">
+    <row r="416" x14ac:dyDescent="0.2">
+      <c r="A416" s="0">
         <v>16.536436596264373</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="0">
         <v>26.859942505189068</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="0">
         <v>30.678100632518863</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A417">
+    <row r="417" x14ac:dyDescent="0.2">
+      <c r="A417" s="0">
         <v>20.919401157707167</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="0">
         <v>27.535390812713217</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="0">
         <v>32.613075769095943</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A418">
+    <row r="418" x14ac:dyDescent="0.2">
+      <c r="A418" s="0">
         <v>26.907560313109069</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="0">
         <v>33.821432323093163</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="0">
         <v>44.411764544859039</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A419">
+    <row r="419" x14ac:dyDescent="0.2">
+      <c r="A419" s="0">
         <v>18.331666551871972</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="0">
         <v>24.457456892601115</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="0">
         <v>23.645729368871233</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A420">
+    <row r="420" x14ac:dyDescent="0.2">
+      <c r="A420" s="0">
         <v>24.785758968681677</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="0">
         <v>32.247557326863493</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="0">
         <v>37.368288131580513</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A421">
+    <row r="421" x14ac:dyDescent="0.2">
+      <c r="A421" s="0">
         <v>23.817238324397412</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="0">
         <v>27.296506723210921</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="0">
         <v>38.622599141043885</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A422">
+    <row r="422" x14ac:dyDescent="0.2">
+      <c r="A422" s="0">
         <v>24.225956449080162</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="0">
         <v>25.474727619893571</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="0">
         <v>39.23838956942275</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A423">
+    <row r="423" x14ac:dyDescent="0.2">
+      <c r="A423" s="0">
         <v>16.911086540902669</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="0">
         <v>24.301829746685385</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="0">
         <v>34.361805499323097</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A424">
+    <row r="424" x14ac:dyDescent="0.2">
+      <c r="A424" s="0">
         <v>18.13582815213049</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="0">
         <v>21.014634105766529</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="0">
         <v>25.293437235759306</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A425">
+    <row r="425" x14ac:dyDescent="0.2">
+      <c r="A425" s="0">
         <v>16.885131880058506</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="0">
         <v>19.174926718551401</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="0">
         <v>18.588903028393524</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A426">
+    <row r="426" x14ac:dyDescent="0.2">
+      <c r="A426" s="0">
         <v>18.623243728331857</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="0">
         <v>19.838497981024656</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="0">
         <v>26.282923620143634</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A427">
+    <row r="427" x14ac:dyDescent="0.2">
+      <c r="A427" s="0">
         <v>20.93306131694553</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="0">
         <v>26.591975844161404</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="0">
         <v>32.142079905726717</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A428">
+    <row r="428" x14ac:dyDescent="0.2">
+      <c r="A428" s="0">
         <v>19.692858291190152</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="0">
         <v>24.285211235906914</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="0">
         <v>35.689284069485751</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A429">
+    <row r="429" x14ac:dyDescent="0.2">
+      <c r="A429" s="0">
         <v>22.328966001649011</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="0">
         <v>25.642755704886262</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="0">
         <v>26.129976831349289</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A430">
+    <row r="430" x14ac:dyDescent="0.2">
+      <c r="A430" s="0">
         <v>17.846807013665551</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="0">
         <v>19.83306026388415</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="0">
         <v>24.624652997311408</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A431">
+    <row r="431" x14ac:dyDescent="0.2">
+      <c r="A431" s="0">
         <v>16.327460468020632</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="0">
         <v>18.517060819933267</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="0">
         <v>17.909042103606478</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A432">
+    <row r="432" x14ac:dyDescent="0.2">
+      <c r="A432" s="0">
         <v>24.378403675966087</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="0">
         <v>30.11284029797784</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="0">
         <v>27.375696544864013</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A433">
+    <row r="433" x14ac:dyDescent="0.2">
+      <c r="A433" s="0">
         <v>18.750999745391304</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="0">
         <v>22.493418975309982</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="0">
         <v>31.20400717729494</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A434">
+    <row r="434" x14ac:dyDescent="0.2">
+      <c r="A434" s="0">
         <v>16.959272937585698</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="0">
         <v>23.170051754636642</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="0">
         <v>22.144325413057199</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A435">
+    <row r="435" x14ac:dyDescent="0.2">
+      <c r="A435" s="0">
         <v>17.979035784817828</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="0">
         <v>22.090374571810422</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="0">
         <v>24.094432896476441</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A436">
+    <row r="436" x14ac:dyDescent="0.2">
+      <c r="A436" s="0">
         <v>21.683505074152041</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="0">
         <v>30.234361295023206</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="0">
         <v>31.715978348430983</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A437">
+    <row r="437" x14ac:dyDescent="0.2">
+      <c r="A437" s="0">
         <v>21.97441635398939</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="0">
         <v>24.583870083670828</v>
       </c>
-      <c r="C437">
+      <c r="C437" s="0">
         <v>22.675679900065866</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A438">
+    <row r="438" x14ac:dyDescent="0.2">
+      <c r="A438" s="0">
         <v>21.15891736202142</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="0">
         <v>25.106088143642182</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="0">
         <v>28.099592830080397</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A439">
+    <row r="439" x14ac:dyDescent="0.2">
+      <c r="A439" s="0">
         <v>18.684755980632406</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="0">
         <v>24.038368674388529</v>
       </c>
-      <c r="C439">
+      <c r="C439" s="0">
         <v>34.229929561164283</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A440">
+    <row r="440" x14ac:dyDescent="0.2">
+      <c r="A440" s="0">
         <v>19.093107049564793</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="0">
         <v>27.927851734700969</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="0">
         <v>33.441424789978896</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A441">
+    <row r="441" x14ac:dyDescent="0.2">
+      <c r="A441" s="0">
         <v>16.397683262714537</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="0">
         <v>17.787679945489085</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="0">
         <v>24.93831138743813</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A442">
+    <row r="442" x14ac:dyDescent="0.2">
+      <c r="A442" s="0">
         <v>23.295895705499049</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="0">
         <v>30.097865444432255</v>
       </c>
-      <c r="C442">
+      <c r="C442" s="0">
         <v>40.532717158452201</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A443">
+    <row r="443" x14ac:dyDescent="0.2">
+      <c r="A443" s="0">
         <v>21.543056065946416</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="0">
         <v>24.867035129374617</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="0">
         <v>29.169685163933114</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A444">
+    <row r="444" x14ac:dyDescent="0.2">
+      <c r="A444" s="0">
         <v>23.95302530914142</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="0">
         <v>28.614008489792909</v>
       </c>
-      <c r="C444">
+      <c r="C444" s="0">
         <v>35.973233496331162</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A445">
+    <row r="445" x14ac:dyDescent="0.2">
+      <c r="A445" s="0">
         <v>32.668964731143987</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="0">
         <v>29.036487479936529</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="0">
         <v>31.28284068820756</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A446">
+    <row r="446" x14ac:dyDescent="0.2">
+      <c r="A446" s="0">
         <v>19.875326305291498</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="0">
         <v>28.896033248933698</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="0">
         <v>31.403473541316536</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A447">
+    <row r="447" x14ac:dyDescent="0.2">
+      <c r="A447" s="0">
         <v>17.930486301481771</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="0">
         <v>29.729031974575996</v>
       </c>
-      <c r="C447">
+      <c r="C447" s="0">
         <v>33.918278069615887</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A448">
+    <row r="448" x14ac:dyDescent="0.2">
+      <c r="A448" s="0">
         <v>23.179519364182191</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="0">
         <v>20.422807762283</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="0">
         <v>20.019147717591132</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A449">
+    <row r="449" x14ac:dyDescent="0.2">
+      <c r="A449" s="0">
         <v>18.136971420463265</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="0">
         <v>22.004592394393256</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="0">
         <v>21.338252554175344</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A450">
+    <row r="450" x14ac:dyDescent="0.2">
+      <c r="A450" s="0">
         <v>18.055672729963849</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="0">
         <v>17.065975100691947</v>
       </c>
-      <c r="C450">
+      <c r="C450" s="0">
         <v>22.712695763520649</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A451">
+    <row r="451" x14ac:dyDescent="0.2">
+      <c r="A451" s="0">
         <v>24.804694032154153</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="0">
         <v>41.074621504870301</v>
       </c>
-      <c r="C451">
+      <c r="C451" s="0">
         <v>46.17247422785772</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A452">
+    <row r="452" x14ac:dyDescent="0.2">
+      <c r="A452" s="0">
         <v>22.086884146040251</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="0">
         <v>28.700221101487699</v>
       </c>
-      <c r="C452">
+      <c r="C452" s="0">
         <v>39.498341963837348</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A453">
+    <row r="453" x14ac:dyDescent="0.2">
+      <c r="A453" s="0">
         <v>24.87521265548601</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="0">
         <v>26.080126779819043</v>
       </c>
-      <c r="C453">
+      <c r="C453" s="0">
         <v>34.105159191143798</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A454">
+    <row r="454" x14ac:dyDescent="0.2">
+      <c r="A454" s="0">
         <v>21.517148857866097</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="0">
         <v>23.3083093965393</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="0">
         <v>34.003398788710861</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A455">
+    <row r="455" x14ac:dyDescent="0.2">
+      <c r="A455" s="0">
         <v>19.668923769235779</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="0">
         <v>22.730786386989969</v>
       </c>
-      <c r="C455">
+      <c r="C455" s="0">
         <v>36.740314541623817</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A456">
+    <row r="456" x14ac:dyDescent="0.2">
+      <c r="A456" s="0">
         <v>21.974729201141319</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="0">
         <v>22.995996986791756</v>
       </c>
-      <c r="C456">
+      <c r="C456" s="0">
         <v>34.583996346438262</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A457">
+    <row r="457" x14ac:dyDescent="0.2">
+      <c r="A457" s="0">
         <v>24.849285335353294</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="0">
         <v>36.938620863470597</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="0">
         <v>37.781845975053727</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A458">
+    <row r="458" x14ac:dyDescent="0.2">
+      <c r="A458" s="0">
         <v>24.833325722199909</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="0">
         <v>39.191377899144413</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="0">
         <v>46.013439321201716</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A459">
+    <row r="459" x14ac:dyDescent="0.2">
+      <c r="A459" s="0">
         <v>21.096533779702774</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="0">
         <v>23.474949645339397</v>
       </c>
-      <c r="C459">
+      <c r="C459" s="0">
         <v>49.619545445047898</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A460">
+    <row r="460" x14ac:dyDescent="0.2">
+      <c r="A460" s="0">
         <v>16.927460043277325</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="0">
         <v>19.950893844217646</v>
       </c>
-      <c r="C460">
+      <c r="C460" s="0">
         <v>23.916386068243703</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A461">
+    <row r="461" x14ac:dyDescent="0.2">
+      <c r="A461" s="0">
         <v>16.758084945545733</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="0">
         <v>20.699648540743325</v>
       </c>
-      <c r="C461">
+      <c r="C461" s="0">
         <v>26.815976615750614</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A462">
+    <row r="462" x14ac:dyDescent="0.2">
+      <c r="A462" s="0">
         <v>21.091960776680367</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="0">
         <v>13.004047451792109</v>
       </c>
-      <c r="C462">
+      <c r="C462" s="0">
         <v>13.616638206714981</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A463">
+    <row r="463" x14ac:dyDescent="0.2">
+      <c r="A463" s="0">
         <v>21.181047765232737</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="0">
         <v>26.776420359673978</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="0">
         <v>44.599752853636566</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A464">
+    <row r="464" x14ac:dyDescent="0.2">
+      <c r="A464" s="0">
         <v>19.335760231355099</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="0">
         <v>25.933242797840538</v>
       </c>
-      <c r="C464">
+      <c r="C464" s="0">
         <v>40.864698604728403</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A465">
+    <row r="465" x14ac:dyDescent="0.2">
+      <c r="A465" s="0">
         <v>21.515870322149503</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="0">
         <v>20.039389875483955</v>
       </c>
-      <c r="C465">
+      <c r="C465" s="0">
         <v>28.897730822489677</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A466">
+    <row r="466" x14ac:dyDescent="0.2">
+      <c r="A466" s="0">
         <v>19.283318082076612</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="0">
         <v>24.728391812626789</v>
       </c>
-      <c r="C466">
+      <c r="C466" s="0">
         <v>29.760685793558824</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A467">
+    <row r="467" x14ac:dyDescent="0.2">
+      <c r="A467" s="0">
         <v>25.390832089423608</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="0">
         <v>27.793299473839731</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="0">
         <v>52.435896736118053</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A468">
+    <row r="468" x14ac:dyDescent="0.2">
+      <c r="A468" s="0">
         <v>17.816564274946003</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="0">
         <v>18.103240683558028</v>
       </c>
-      <c r="C468">
+      <c r="C468" s="0">
         <v>25.847424947720476</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A469">
+    <row r="469" x14ac:dyDescent="0.2">
+      <c r="A469" s="0">
         <v>27.240697727023591</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="0">
         <v>33.85866316303683</v>
       </c>
-      <c r="C469">
+      <c r="C469" s="0">
         <v>39.539666889438394</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A470">
+    <row r="470" x14ac:dyDescent="0.2">
+      <c r="A470" s="0">
         <v>16.439380279657346</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="0">
         <v>18.242538930085022</v>
       </c>
-      <c r="C470">
+      <c r="C470" s="0">
         <v>22.209345264489727</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A471">
+    <row r="471" x14ac:dyDescent="0.2">
+      <c r="A471" s="0">
         <v>21.617286233899861</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="0">
         <v>29.02090094387114</v>
       </c>
-      <c r="C471">
+      <c r="C471" s="0">
         <v>30.260442481394801</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A472">
+    <row r="472" x14ac:dyDescent="0.2">
+      <c r="A472" s="0">
         <v>19.290726680996702</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="0">
         <v>19.904976655086486</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="0">
         <v>27.245925387104311</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A473">
+    <row r="473" x14ac:dyDescent="0.2">
+      <c r="A473" s="0">
         <v>28.225286602068579</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="0">
         <v>33.73809382999913</v>
       </c>
-      <c r="C473">
+      <c r="C473" s="0">
         <v>64.935277013574265</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A474">
+    <row r="474" x14ac:dyDescent="0.2">
+      <c r="A474" s="0">
         <v>21.504188906371951</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="0">
         <v>34.590171490767347</v>
       </c>
-      <c r="C474">
+      <c r="C474" s="0">
         <v>40.653025744403884</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A475">
+    <row r="475" x14ac:dyDescent="0.2">
+      <c r="A475" s="0">
         <v>16.179752869320275</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="0">
         <v>16.366545403118106</v>
       </c>
-      <c r="C475">
+      <c r="C475" s="0">
         <v>17.992420394319858</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A476">
+    <row r="476" x14ac:dyDescent="0.2">
+      <c r="A476" s="0">
         <v>27.90520046342354</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="0">
         <v>17.228326923737679</v>
       </c>
-      <c r="C476">
+      <c r="C476" s="0">
         <v>16.066565855241311</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A477">
+    <row r="477" x14ac:dyDescent="0.2">
+      <c r="A477" s="0">
         <v>16.953556006377809</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="0">
         <v>24.713933543439715</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="0">
         <v>31.090878504612913</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A478">
+    <row r="478" x14ac:dyDescent="0.2">
+      <c r="A478" s="0">
         <v>18.911873316428895</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="0">
         <v>20.676968121361114</v>
       </c>
-      <c r="C478">
+      <c r="C478" s="0">
         <v>20.41243821301542</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A479">
+    <row r="479" x14ac:dyDescent="0.2">
+      <c r="A479" s="0">
         <v>19.993829791121279</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="0">
         <v>44.705827537524748</v>
       </c>
-      <c r="C479">
+      <c r="C479" s="0">
         <v>52.315237441120821</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A480">
+    <row r="480" x14ac:dyDescent="0.2">
+      <c r="A480" s="0">
         <v>15.488289549293318</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="0">
         <v>17.269401529556731</v>
       </c>
-      <c r="C480">
+      <c r="C480" s="0">
         <v>17.644997850576651</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A481">
+    <row r="481" x14ac:dyDescent="0.2">
+      <c r="A481" s="0">
         <v>14.647946376057892</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="0">
         <v>13.054848944866942</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="0">
         <v>13.245642397321602</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A482">
+    <row r="482" x14ac:dyDescent="0.2">
+      <c r="A482" s="0">
         <v>17.071479244613272</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="0">
         <v>21.860516538790613</v>
       </c>
-      <c r="C482">
+      <c r="C482" s="0">
         <v>31.32420617518137</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A483">
+    <row r="483" x14ac:dyDescent="0.2">
+      <c r="A483" s="0">
         <v>21.520854201169751</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="0">
         <v>26.180044780125701</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="0">
         <v>34.550452113155501</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A484">
+    <row r="484" x14ac:dyDescent="0.2">
+      <c r="A484" s="0">
         <v>19.237751563544673</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="0">
         <v>40.404947912741825</v>
       </c>
-      <c r="C484">
+      <c r="C484" s="0">
         <v>43.37514466385052</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A485">
+    <row r="485" x14ac:dyDescent="0.2">
+      <c r="A485" s="0">
         <v>17.263425498080728</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="0">
         <v>27.150630816256662</v>
       </c>
-      <c r="C485">
+      <c r="C485" s="0">
         <v>48.235741674778502</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A486">
+    <row r="486" x14ac:dyDescent="0.2">
+      <c r="A486" s="0">
         <v>21.577159129660707</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="0">
         <v>27.049747817816776</v>
       </c>
-      <c r="C486">
+      <c r="C486" s="0">
         <v>51.252270193176983</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A487">
+    <row r="487" x14ac:dyDescent="0.2">
+      <c r="A487" s="0">
         <v>17.867866597236858</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="0">
         <v>27.148245206585194</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="0">
         <v>37.889197169873697</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A488">
+    <row r="488" x14ac:dyDescent="0.2">
+      <c r="A488" s="0">
         <v>20.665245818183337</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="0">
         <v>27.901343244057859</v>
       </c>
-      <c r="C488">
+      <c r="C488" s="0">
         <v>63.891667258122439</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A489">
+    <row r="489" x14ac:dyDescent="0.2">
+      <c r="A489" s="0">
         <v>20.245483947268109</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="0">
         <v>24.513565157400787</v>
       </c>
-      <c r="C489">
+      <c r="C489" s="0">
         <v>52.139276344233984</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A490">
+    <row r="490" x14ac:dyDescent="0.2">
+      <c r="A490" s="0">
         <v>15.944614942924089</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="0">
         <v>21.432994399838787</v>
       </c>
-      <c r="C490">
+      <c r="C490" s="0">
         <v>44.182885310017561</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A491">
+    <row r="491" x14ac:dyDescent="0.2">
+      <c r="A491" s="0">
         <v>19.884859628798601</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="0">
         <v>22.081931483802151</v>
       </c>
-      <c r="C491">
+      <c r="C491" s="0">
         <v>26.933194544980502</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A492">
+    <row r="492" x14ac:dyDescent="0.2">
+      <c r="A492" s="0">
         <v>16.07776865366516</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="0">
         <v>16.194131446520824</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="0">
         <v>22.118547398134311</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A493">
+    <row r="493" x14ac:dyDescent="0.2">
+      <c r="A493" s="0">
         <v>14.642827500067263</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="0">
         <v>12.915056571499971</v>
       </c>
-      <c r="C493">
+      <c r="C493" s="0">
         <v>17.157387834225506</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A494">
+    <row r="494" x14ac:dyDescent="0.2">
+      <c r="A494" s="0">
         <v>16.973642930594906</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="0">
         <v>17.974224526658347</v>
       </c>
-      <c r="C494">
+      <c r="C494" s="0">
         <v>17.611958644200374</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A495">
+    <row r="495" x14ac:dyDescent="0.2">
+      <c r="A495" s="0">
         <v>15.573200437107031</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="0">
         <v>13.497839966531682</v>
       </c>
-      <c r="C495">
+      <c r="C495" s="0">
         <v>18.260875793486619</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A496">
+    <row r="496" x14ac:dyDescent="0.2">
+      <c r="A496" s="0">
         <v>15.360617446359131</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="0">
         <v>17.081837713693705</v>
       </c>
-      <c r="C496">
+      <c r="C496" s="0">
         <v>23.433381964346335</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A497">
+    <row r="497" x14ac:dyDescent="0.2">
+      <c r="A497" s="0">
         <v>17.61808929031492</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="0">
         <v>15.933642236452679</v>
       </c>
-      <c r="C497">
+      <c r="C497" s="0">
         <v>19.357334624842448</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A498">
+    <row r="498" x14ac:dyDescent="0.2">
+      <c r="A498" s="0">
         <v>16.994639567292253</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="0">
         <v>19.104719056694151</v>
       </c>
-      <c r="C498">
+      <c r="C498" s="0">
         <v>20.939802519234533</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A499">
+    <row r="499" x14ac:dyDescent="0.2">
+      <c r="A499" s="0">
         <v>16.185554947274738</v>
       </c>
-      <c r="B499">
+      <c r="B499" s="0">
         <v>20.10150589847084</v>
       </c>
-      <c r="C499">
+      <c r="C499" s="0">
         <v>16.510123197345852</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A500">
+    <row r="500" x14ac:dyDescent="0.2">
+      <c r="A500" s="0">
         <v>16.603442239561996</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="0">
         <v>13.887711683353194</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="0">
         <v>16.655626180340825</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A501">
+    <row r="501" x14ac:dyDescent="0.2">
+      <c r="A501" s="0">
         <v>16.894430878626732</v>
       </c>
-      <c r="B501">
+      <c r="B501" s="0">
         <v>17.576719879338114</v>
       </c>
-      <c r="C501">
+      <c r="C501" s="0">
         <v>18.073484817542205</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A502">
+    <row r="502" x14ac:dyDescent="0.2">
+      <c r="A502" s="0">
         <v>21.255987665224307</v>
       </c>
-      <c r="B502">
+      <c r="B502" s="0">
         <v>20.475862390704044</v>
       </c>
-      <c r="C502">
+      <c r="C502" s="0">
         <v>20.584088593747577</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A503">
+    <row r="503" x14ac:dyDescent="0.2">
+      <c r="A503" s="0">
         <v>22.479494773117992</v>
       </c>
-      <c r="B503">
+      <c r="B503" s="0">
         <v>26.117091184310084</v>
       </c>
-      <c r="C503">
+      <c r="C503" s="0">
         <v>22.327475212202106</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A504">
+    <row r="504" x14ac:dyDescent="0.2">
+      <c r="A504" s="0">
         <v>19.988504123309774</v>
       </c>
-      <c r="B504">
+      <c r="B504" s="0">
         <v>20.282256123492765</v>
       </c>
-      <c r="C504">
+      <c r="C504" s="0">
         <v>16.628030724989859</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A505">
+    <row r="505" x14ac:dyDescent="0.2">
+      <c r="A505" s="0">
         <v>20.721661934094964</v>
       </c>
-      <c r="B505">
+      <c r="B505" s="0">
         <v>23.607957757181961</v>
       </c>
-      <c r="C505">
+      <c r="C505" s="0">
         <v>19.374506987325006</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A506">
+    <row r="506" x14ac:dyDescent="0.2">
+      <c r="A506" s="0">
         <v>17.581425254616715</v>
       </c>
-      <c r="B506">
+      <c r="B506" s="0">
         <v>21.374231642295587</v>
       </c>
-      <c r="C506">
+      <c r="C506" s="0">
         <v>20.921035348520917</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A507">
+    <row r="507" x14ac:dyDescent="0.2">
+      <c r="A507" s="0">
         <v>16.499352438905287</v>
       </c>
-      <c r="B507">
+      <c r="B507" s="0">
         <v>14.91861951239329</v>
       </c>
-      <c r="C507">
+      <c r="C507" s="0">
         <v>21.896146212910306</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A508">
+    <row r="508" x14ac:dyDescent="0.2">
+      <c r="A508" s="0">
         <v>12.658179534615208</v>
       </c>
-      <c r="B508">
+      <c r="B508" s="0">
         <v>14.841383952591048</v>
       </c>
-      <c r="C508">
+      <c r="C508" s="0">
         <v>14.20041350513913</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A509">
+    <row r="509" x14ac:dyDescent="0.2">
+      <c r="A509" s="0">
         <v>18.834279947612369</v>
       </c>
-      <c r="B509">
+      <c r="B509" s="0">
         <v>26.028586092465943</v>
       </c>
-      <c r="C509">
+      <c r="C509" s="0">
         <v>26.26723831085059</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A510">
+    <row r="510" x14ac:dyDescent="0.2">
+      <c r="A510" s="0">
         <v>20.874285496746499</v>
       </c>
-      <c r="B510">
+      <c r="B510" s="0">
         <v>20.686492818835969</v>
       </c>
-      <c r="C510">
+      <c r="C510" s="0">
         <v>22.193471773262701</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A511">
+    <row r="511" x14ac:dyDescent="0.2">
+      <c r="A511" s="0">
         <v>19.99125155992234</v>
       </c>
-      <c r="B511">
+      <c r="B511" s="0">
         <v>24.015208655050738</v>
       </c>
-      <c r="C511">
+      <c r="C511" s="0">
         <v>31.174272081941243</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A512">
+    <row r="512" x14ac:dyDescent="0.2">
+      <c r="A512" s="0">
         <v>20.838783472386343</v>
       </c>
-      <c r="B512">
+      <c r="B512" s="0">
         <v>22.092526109706586</v>
       </c>
-      <c r="C512">
+      <c r="C512" s="0">
         <v>18.995775187394141</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A513">
+    <row r="513" x14ac:dyDescent="0.2">
+      <c r="A513" s="0">
         <v>19.00858083610796</v>
       </c>
-      <c r="B513">
+      <c r="B513" s="0">
         <v>19.403190443565361</v>
       </c>
-      <c r="C513">
+      <c r="C513" s="0">
         <v>22.571783056210318</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A514">
+    <row r="514" x14ac:dyDescent="0.2">
+      <c r="A514" s="0">
         <v>15.034625274618593</v>
       </c>
-      <c r="B514">
+      <c r="B514" s="0">
         <v>15.396905538800549</v>
       </c>
-      <c r="C514">
+      <c r="C514" s="0">
         <v>18.783138603433372</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A515">
+    <row r="515" x14ac:dyDescent="0.2">
+      <c r="A515" s="0">
         <v>23.15044875894408</v>
       </c>
-      <c r="B515">
+      <c r="B515" s="0">
         <v>23.328270514734204</v>
       </c>
-      <c r="C515">
+      <c r="C515" s="0">
         <v>23.293764565623817</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A516">
+    <row r="516" x14ac:dyDescent="0.2">
+      <c r="A516" s="0">
         <v>15.072349503872587</v>
       </c>
-      <c r="B516">
+      <c r="B516" s="0">
         <v>21.397442043731424</v>
       </c>
-      <c r="C516">
+      <c r="C516" s="0">
         <v>22.053769229653621</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A517">
+    <row r="517" x14ac:dyDescent="0.2">
+      <c r="A517" s="0">
         <v>20.038946536466209</v>
       </c>
-      <c r="B517">
+      <c r="B517" s="0">
         <v>20.895417694562713</v>
       </c>
-      <c r="C517">
+      <c r="C517" s="0">
         <v>24.589724363762123</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A518">
+    <row r="518" x14ac:dyDescent="0.2">
+      <c r="A518" s="0">
         <v>22.764742241632874</v>
       </c>
-      <c r="B518">
+      <c r="B518" s="0">
         <v>21.653846708890619</v>
       </c>
-      <c r="C518">
+      <c r="C518" s="0">
         <v>23.171214842071965</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A519">
+    <row r="519" x14ac:dyDescent="0.2">
+      <c r="A519" s="0">
         <v>19.253768227364343</v>
       </c>
-      <c r="B519">
+      <c r="B519" s="0">
         <v>24.348829151908369</v>
       </c>
-      <c r="C519">
+      <c r="C519" s="0">
         <v>24.031538369979497</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A520">
+    <row r="520" x14ac:dyDescent="0.2">
+      <c r="A520" s="0">
         <v>21.23905170606124</v>
       </c>
-      <c r="B520">
+      <c r="B520" s="0">
         <v>24.038142923779105</v>
       </c>
-      <c r="C520">
+      <c r="C520" s="0">
         <v>22.576845038362126</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A521">
+    <row r="521" x14ac:dyDescent="0.2">
+      <c r="A521" s="0">
         <v>16.656682545237043</v>
       </c>
-      <c r="B521">
+      <c r="B521" s="0">
         <v>21.265408670071292</v>
       </c>
-      <c r="C521">
+      <c r="C521" s="0">
         <v>20.16711725906115</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A522">
+    <row r="522" x14ac:dyDescent="0.2">
+      <c r="A522" s="0">
         <v>22.602468530600401</v>
       </c>
-      <c r="B522">
+      <c r="B522" s="0">
         <v>25.374258975862791</v>
       </c>
-      <c r="C522">
+      <c r="C522" s="0">
         <v>22.064956158044318</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A523">
+    <row r="523" x14ac:dyDescent="0.2">
+      <c r="A523" s="0">
         <v>23.973185955437067</v>
       </c>
-      <c r="B523">
+      <c r="B523" s="0">
         <v>51.365842676973998</v>
       </c>
-      <c r="C523">
+      <c r="C523" s="0">
         <v>26.292626737593149</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A524">
+    <row r="524" x14ac:dyDescent="0.2">
+      <c r="A524" s="0">
         <v>45.013365438184977</v>
       </c>
-      <c r="B524">
+      <c r="B524" s="0">
         <v>25.058976410686302</v>
       </c>
-      <c r="C524">
+      <c r="C524" s="0">
         <v>29.28171598521142</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A525">
+    <row r="525" x14ac:dyDescent="0.2">
+      <c r="A525" s="0">
         <v>58.161305468443409</v>
       </c>
-      <c r="B525">
+      <c r="B525" s="0">
         <v>33.157607768108065</v>
       </c>
-      <c r="C525">
+      <c r="C525" s="0">
         <v>26.539396780540525</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B526">
+    <row r="526" x14ac:dyDescent="0.2">
+      <c r="A526" s="0"/>
+      <c r="B526" s="0">
         <v>25.856063249492252</v>
       </c>
-      <c r="C526">
+      <c r="C526" s="0">
         <v>25.581618356286686</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A527">
+    <row r="527" x14ac:dyDescent="0.2">
+      <c r="A527" s="0">
         <v>29.744980680744419</v>
       </c>
-      <c r="B527">
+      <c r="B527" s="0">
         <v>21.150206588793885</v>
       </c>
-      <c r="C527">
+      <c r="C527" s="0">
         <v>22.668804900664671</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A528">
+    <row r="528" x14ac:dyDescent="0.2">
+      <c r="A528" s="0">
         <v>22.230365707945928</v>
       </c>
-      <c r="B528">
+      <c r="B528" s="0">
         <v>21.639826957873336</v>
       </c>
-      <c r="C528">
+      <c r="C528" s="0">
         <v>22.62489213800017</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A529">
+    <row r="529" x14ac:dyDescent="0.2">
+      <c r="A529" s="0">
         <v>28.021353581556131</v>
       </c>
-      <c r="B529">
+      <c r="B529" s="0">
         <v>25.352607082258807</v>
       </c>
-      <c r="C529">
+      <c r="C529" s="0">
         <v>32.764238502166606</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A530">
+    <row r="530" x14ac:dyDescent="0.2">
+      <c r="A530" s="0">
         <v>31.966427366360282</v>
       </c>
-      <c r="B530">
+      <c r="B530" s="0">
         <v>26.937039697369482</v>
       </c>
-      <c r="C530">
+      <c r="C530" s="0">
         <v>23.099533100319189</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="533" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <f>AVERAGE(A2:A530)</f>
         <v>24.089583454766153</v>
@@ -6241,7 +6279,7 @@
         <v>28.101515545496493</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="534" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <f>STDEV(A2:A530)/A535</f>
         <v>1.2481691970489501E-2</v>
@@ -6255,7 +6293,7 @@
         <v>1.6300215999928487E-2</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="535" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <f>COUNT(A2:A530)</f>
         <v>528</v>
